--- a/raw_data/20200818_saline/20200818_Sensor1_Test_19.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_19.xlsx
@@ -1,1686 +1,2102 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2588AF01-CD05-403C-AE0C-87161074E696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>16387.506095</v>
+        <v>16387.506095000001</v>
       </c>
       <c r="B2" s="1">
-        <v>4.552085</v>
+        <v>4.5520849999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>896.016000</v>
+        <v>896.01599999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.890000</v>
+        <v>-199.89</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>16397.553524</v>
+        <v>16397.553523999999</v>
       </c>
       <c r="G2" s="1">
-        <v>4.554876</v>
+        <v>4.5548760000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>913.753000</v>
+        <v>913.75300000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.142000</v>
+        <v>-169.142</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>16407.694229</v>
+        <v>16407.694229000001</v>
       </c>
       <c r="L2" s="1">
-        <v>4.557693</v>
+        <v>4.5576930000000004</v>
       </c>
       <c r="M2" s="1">
-        <v>936.218000</v>
+        <v>936.21799999999996</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.408000</v>
+        <v>-119.408</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>16418.226785</v>
+        <v>16418.226784999999</v>
       </c>
       <c r="Q2" s="1">
         <v>4.560619</v>
       </c>
       <c r="R2" s="1">
-        <v>942.606000</v>
+        <v>942.60599999999999</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.093000</v>
+        <v>-103.093</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>16429.137768</v>
+        <v>16429.137768000001</v>
       </c>
       <c r="V2" s="1">
-        <v>4.563649</v>
+        <v>4.5636489999999998</v>
       </c>
       <c r="W2" s="1">
-        <v>948.836000</v>
+        <v>948.83600000000001</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.167600</v>
+        <v>-88.167599999999993</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>16439.591487</v>
+        <v>16439.591487000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.566553</v>
+        <v>4.5665529999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>955.804000</v>
+        <v>955.80399999999997</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.797500</v>
+        <v>-76.797499999999999</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>16450.527245</v>
+        <v>16450.527245000001</v>
       </c>
       <c r="AF2" s="1">
         <v>4.569591</v>
       </c>
       <c r="AG2" s="1">
-        <v>960.433000</v>
+        <v>960.43299999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.948600</v>
+        <v>-74.948599999999999</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>16461.274062</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.572576</v>
+        <v>4.5725759999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>967.510000</v>
+        <v>967.51</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.861600</v>
+        <v>-79.861599999999996</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>16471.805617</v>
+        <v>16471.805617000002</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.575502</v>
+        <v>4.5755020000000002</v>
       </c>
       <c r="AQ2" s="1">
-        <v>975.592000</v>
+        <v>975.59199999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.794600</v>
+        <v>-91.794600000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>16482.799441</v>
+        <v>16482.799440999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.578555</v>
+        <v>4.5785549999999997</v>
       </c>
       <c r="AV2" s="1">
-        <v>985.506000</v>
+        <v>985.50599999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.828000</v>
+        <v>-109.828</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>16493.585939</v>
+        <v>16493.585939000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.581552</v>
+        <v>4.5815520000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>993.808000</v>
+        <v>993.80799999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.694000</v>
+        <v>-125.694</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>16504.569350</v>
+        <v>16504.569350000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.584603</v>
+        <v>4.5846030000000004</v>
       </c>
       <c r="BF2" s="1">
-        <v>1032.720000</v>
+        <v>1032.72</v>
       </c>
       <c r="BG2" s="1">
-        <v>-198.740000</v>
+        <v>-198.74</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>16515.944103</v>
+        <v>16515.944103000002</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.587762</v>
+        <v>4.5877619999999997</v>
       </c>
       <c r="BK2" s="1">
-        <v>1099.850000</v>
+        <v>1099.8499999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-317.314000</v>
+        <v>-317.31400000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>16526.992515</v>
+        <v>16526.992515000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.590831</v>
+        <v>4.5908309999999997</v>
       </c>
       <c r="BP2" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-504.618000</v>
+        <v>-504.61799999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>16538.252666</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.593959</v>
+        <v>4.5939589999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1332.330000</v>
+        <v>1332.33</v>
       </c>
       <c r="BV2" s="1">
-        <v>-710.536000</v>
+        <v>-710.53599999999994</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>16548.898826</v>
+        <v>16548.898826000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.596916</v>
+        <v>4.5969160000000002</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1470.060000</v>
+        <v>1470.06</v>
       </c>
       <c r="CA2" s="1">
-        <v>-930.068000</v>
+        <v>-930.06799999999998</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>16559.907003</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.599974</v>
+        <v>4.5999739999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>1833.530000</v>
+        <v>1833.53</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1451.400000</v>
+        <v>-1451.4</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
         <v>16387.928655</v>
       </c>
       <c r="B3" s="1">
-        <v>4.552202</v>
+        <v>4.5522020000000003</v>
       </c>
       <c r="C3" s="1">
-        <v>896.124000</v>
+        <v>896.12400000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-199.952000</v>
+        <v>-199.952</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>16397.664626</v>
+        <v>16397.664626000002</v>
       </c>
       <c r="G3" s="1">
         <v>4.554907</v>
       </c>
       <c r="H3" s="1">
-        <v>913.492000</v>
+        <v>913.49199999999996</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.917000</v>
+        <v>-168.917</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>16408.102964</v>
+        <v>16408.102964000002</v>
       </c>
       <c r="L3" s="1">
-        <v>4.557806</v>
+        <v>4.5578060000000002</v>
       </c>
       <c r="M3" s="1">
-        <v>935.936000</v>
+        <v>935.93600000000004</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.429000</v>
+        <v>-119.429</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>16418.605751</v>
+        <v>16418.605750999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.560724</v>
+        <v>4.5607240000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>942.637000</v>
+        <v>942.63699999999994</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.132000</v>
+        <v>-103.13200000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>16429.518199</v>
+        <v>16429.518198999998</v>
       </c>
       <c r="V3" s="1">
-        <v>4.563755</v>
+        <v>4.5637549999999996</v>
       </c>
       <c r="W3" s="1">
-        <v>948.857000</v>
+        <v>948.85699999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.146500</v>
+        <v>-88.146500000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>16439.975851</v>
+        <v>16439.975850999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.566660</v>
+        <v>4.5666599999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>955.814000</v>
+        <v>955.81399999999996</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.761100</v>
+        <v>-76.761099999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>16451.242506</v>
+        <v>16451.242505999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.569790</v>
+        <v>4.5697900000000002</v>
       </c>
       <c r="AG3" s="1">
-        <v>960.347000</v>
+        <v>960.34699999999998</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.827600</v>
+        <v>-74.827600000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>16461.627255</v>
+        <v>16461.627254999999</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.572674</v>
+        <v>4.5726740000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>967.482000</v>
+        <v>967.48199999999997</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.855400</v>
+        <v>-79.855400000000003</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>16472.191999</v>
+        <v>16472.191998999999</v>
       </c>
       <c r="AP3" s="1">
         <v>4.575609</v>
       </c>
       <c r="AQ3" s="1">
-        <v>975.591000</v>
+        <v>975.59100000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.792600</v>
+        <v>-91.792599999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>16483.204176</v>
+        <v>16483.204175999999</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.578668</v>
+        <v>4.5786680000000004</v>
       </c>
       <c r="AV3" s="1">
-        <v>985.505000</v>
+        <v>985.505</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.835000</v>
+        <v>-109.83499999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>16494.304642</v>
+        <v>16494.304641999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.581751</v>
+        <v>4.5817509999999997</v>
       </c>
       <c r="BA3" s="1">
-        <v>993.799000</v>
+        <v>993.79899999999998</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.704000</v>
+        <v>-125.70399999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>16505.266229</v>
+        <v>16505.266229000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.584796</v>
+        <v>4.5847959999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1032.700000</v>
+        <v>1032.7</v>
       </c>
       <c r="BG3" s="1">
-        <v>-198.752000</v>
+        <v>-198.75200000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>16516.054213</v>
+        <v>16516.054212999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.587793</v>
+        <v>4.5877929999999996</v>
       </c>
       <c r="BK3" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL3" s="1">
-        <v>-317.359000</v>
+        <v>-317.35899999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>16527.500886</v>
+        <v>16527.500886000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.590972</v>
+        <v>4.5909719999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-504.638000</v>
+        <v>-504.63799999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>16538.692121</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.594081</v>
+        <v>4.5940810000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1332.330000</v>
+        <v>1332.33</v>
       </c>
       <c r="BV3" s="1">
-        <v>-710.621000</v>
+        <v>-710.62099999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>16549.376129</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.597049</v>
+        <v>4.5970490000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1470.120000</v>
+        <v>1470.12</v>
       </c>
       <c r="CA3" s="1">
-        <v>-930.242000</v>
+        <v>-930.24199999999996</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>16560.503194</v>
+        <v>16560.503194000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.600140</v>
+        <v>4.6001399999999997</v>
       </c>
       <c r="CE3" s="1">
-        <v>1833.750000</v>
+        <v>1833.75</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1453.350000</v>
+        <v>-1453.35</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>16388.269935</v>
       </c>
       <c r="B4" s="1">
-        <v>4.552297</v>
+        <v>4.5522970000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>896.215000</v>
+        <v>896.21500000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.053000</v>
+        <v>-200.053</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>16397.998467</v>
+        <v>16397.998467000001</v>
       </c>
       <c r="G4" s="1">
-        <v>4.555000</v>
+        <v>4.5549999999999997</v>
       </c>
       <c r="H4" s="1">
-        <v>913.554000</v>
+        <v>913.55399999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.193000</v>
+        <v>-169.19300000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>16408.453605</v>
+        <v>16408.453604999999</v>
       </c>
       <c r="L4" s="1">
-        <v>4.557904</v>
+        <v>4.5579039999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>936.222000</v>
+        <v>936.22199999999998</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.313000</v>
+        <v>-119.313</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>16418.953909</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.560821</v>
+        <v>4.5608209999999998</v>
       </c>
       <c r="R4" s="1">
-        <v>942.633000</v>
+        <v>942.63300000000004</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.163000</v>
+        <v>-103.163</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>16430.205160</v>
+        <v>16430.205160000001</v>
       </c>
       <c r="V4" s="1">
-        <v>4.563946</v>
+        <v>4.5639459999999996</v>
       </c>
       <c r="W4" s="1">
-        <v>948.964000</v>
+        <v>948.96400000000006</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.206900</v>
+        <v>-88.206900000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>16440.673721</v>
+        <v>16440.673720999999</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.566854</v>
+        <v>4.5668540000000002</v>
       </c>
       <c r="AB4" s="1">
-        <v>955.759000</v>
+        <v>955.75900000000001</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.768100</v>
+        <v>-76.768100000000004</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>16451.585035</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.569885</v>
+        <v>4.5698850000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>960.353000</v>
+        <v>960.35299999999995</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.820600</v>
+        <v>-74.820599999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>16461.973917</v>
+        <v>16461.973916999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.572771</v>
+        <v>4.5727710000000004</v>
       </c>
       <c r="AL4" s="1">
-        <v>967.490000</v>
+        <v>967.49</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.861900</v>
+        <v>-79.861900000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>16472.569455</v>
+        <v>16472.569455000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.575714</v>
+        <v>4.5757139999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>975.619000</v>
+        <v>975.61900000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.774400</v>
+        <v>-91.7744</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>16483.876256</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.578855</v>
+        <v>4.5788549999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>985.491000</v>
+        <v>985.49099999999999</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.811000</v>
+        <v>-109.81100000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>16494.741153</v>
+        <v>16494.741152999999</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.581873</v>
+        <v>4.5818729999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>993.816000</v>
+        <v>993.81600000000003</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.696000</v>
+        <v>-125.696</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>16505.680147</v>
+        <v>16505.680146999999</v>
       </c>
       <c r="BE4" s="1">
         <v>4.584911</v>
       </c>
       <c r="BF4" s="1">
-        <v>1032.690000</v>
+        <v>1032.69</v>
       </c>
       <c r="BG4" s="1">
-        <v>-198.727000</v>
+        <v>-198.727</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>16516.412546</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.587892</v>
+        <v>4.5878920000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1099.820000</v>
+        <v>1099.82</v>
       </c>
       <c r="BL4" s="1">
-        <v>-317.362000</v>
+        <v>-317.36200000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>16527.914085</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.591087</v>
+        <v>4.5910869999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-504.634000</v>
+        <v>-504.63400000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>16539.128599</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.594202</v>
+        <v>4.5942020000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1332.250000</v>
+        <v>1332.25</v>
       </c>
       <c r="BV4" s="1">
-        <v>-710.724000</v>
+        <v>-710.72400000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>16549.808967</v>
+        <v>16549.808967000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.597169</v>
+        <v>4.5971690000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1470.170000</v>
+        <v>1470.17</v>
       </c>
       <c r="CA4" s="1">
-        <v>-930.238000</v>
+        <v>-930.23800000000006</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>16561.039866</v>
+        <v>16561.039865999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.600289</v>
+        <v>4.6002890000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1834.410000</v>
+        <v>1834.41</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1451.660000</v>
+        <v>-1451.66</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>16388.612645</v>
+        <v>16388.612645000001</v>
       </c>
       <c r="B5" s="1">
-        <v>4.552392</v>
+        <v>4.5523920000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>896.305000</v>
+        <v>896.30499999999995</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.934000</v>
+        <v>-199.934</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>16398.343684</v>
+        <v>16398.343683999999</v>
       </c>
       <c r="G5" s="1">
-        <v>4.555095</v>
+        <v>4.5550949999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>913.683000</v>
+        <v>913.68299999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.785000</v>
+        <v>-168.785</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>16408.798323</v>
+        <v>16408.798322999999</v>
       </c>
       <c r="L5" s="1">
-        <v>4.558000</v>
+        <v>4.5579999999999998</v>
       </c>
       <c r="M5" s="1">
-        <v>935.905000</v>
+        <v>935.90499999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.461000</v>
+        <v>-119.461</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>16419.651782</v>
+        <v>16419.651782000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.561014</v>
+        <v>4.5610140000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>942.591000</v>
+        <v>942.59100000000001</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.179000</v>
+        <v>-103.179</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>16430.550409</v>
+        <v>16430.550408999999</v>
       </c>
       <c r="V5" s="1">
-        <v>4.564042</v>
+        <v>4.5640419999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>948.892000</v>
+        <v>948.89200000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.203400</v>
+        <v>-88.203400000000002</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>16441.022906</v>
+        <v>16441.022905999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.566951</v>
+        <v>4.5669510000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>955.806000</v>
+        <v>955.80600000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.778000</v>
+        <v>-76.778000000000006</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>16451.927450</v>
+        <v>16451.927449999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.569980</v>
+        <v>4.5699800000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>960.388000</v>
+        <v>960.38800000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.840100</v>
+        <v>-74.840100000000007</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>16462.632108</v>
+        <v>16462.632108000002</v>
       </c>
       <c r="AK5" s="1">
         <v>4.572953</v>
       </c>
       <c r="AL5" s="1">
-        <v>967.512000</v>
+        <v>967.51199999999994</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.873700</v>
+        <v>-79.873699999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>16473.246495</v>
+        <v>16473.246494999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.575902</v>
+        <v>4.5759020000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>975.604000</v>
+        <v>975.60400000000004</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.776000</v>
+        <v>-91.775999999999996</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>16484.328607</v>
+        <v>16484.328606999999</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.578980</v>
+        <v>4.5789799999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>985.503000</v>
+        <v>985.50300000000004</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.833000</v>
+        <v>-109.833</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>16495.100721</v>
+        <v>16495.100720999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.581972</v>
+        <v>4.5819720000000004</v>
       </c>
       <c r="BA5" s="1">
-        <v>993.807000</v>
+        <v>993.80700000000002</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.716000</v>
+        <v>-125.71599999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>16506.023618</v>
+        <v>16506.023617999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.585007</v>
+        <v>4.5850070000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1032.690000</v>
+        <v>1032.69</v>
       </c>
       <c r="BG5" s="1">
-        <v>-198.749000</v>
+        <v>-198.749</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>16516.787302</v>
+        <v>16516.787302000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.587996</v>
+        <v>4.5879960000000004</v>
       </c>
       <c r="BK5" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL5" s="1">
-        <v>-317.338000</v>
+        <v>-317.33800000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>16528.337141</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.591205</v>
+        <v>4.5912050000000004</v>
       </c>
       <c r="BP5" s="1">
-        <v>1208.990000</v>
+        <v>1208.99</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-504.646000</v>
+        <v>-504.64600000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>16539.554166</v>
+        <v>16539.554166000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.594321</v>
+        <v>4.5943209999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="BV5" s="1">
-        <v>-710.758000</v>
+        <v>-710.75800000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>16550.231048</v>
+        <v>16550.231048000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.597286</v>
+        <v>4.5972860000000004</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1470.140000</v>
+        <v>1470.14</v>
       </c>
       <c r="CA5" s="1">
-        <v>-930.184000</v>
+        <v>-930.18399999999997</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>16561.581535</v>
+        <v>16561.581535000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.600439</v>
+        <v>4.6004389999999997</v>
       </c>
       <c r="CE5" s="1">
-        <v>1833.190000</v>
+        <v>1833.19</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1452.370000</v>
+        <v>-1452.37</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>16388.954914</v>
+        <v>16388.954914000002</v>
       </c>
       <c r="B6" s="1">
-        <v>4.552487</v>
+        <v>4.5524870000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>896.185000</v>
+        <v>896.18499999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.117000</v>
+        <v>-200.11699999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>16399.032592</v>
       </c>
       <c r="G6" s="1">
-        <v>4.555287</v>
+        <v>4.5552869999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>913.628000</v>
+        <v>913.62800000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.465000</v>
+        <v>-168.465</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>16409.490278</v>
+        <v>16409.490278000001</v>
       </c>
       <c r="L6" s="1">
         <v>4.558192</v>
       </c>
       <c r="M6" s="1">
-        <v>935.774000</v>
+        <v>935.774</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.539000</v>
+        <v>-119.539</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>16420.002980</v>
+        <v>16420.002980000001</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.561112</v>
+        <v>4.5611119999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>942.590000</v>
+        <v>942.59</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.138000</v>
+        <v>-103.13800000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>16430.891159</v>
+        <v>16430.891158999999</v>
       </c>
       <c r="V6" s="1">
-        <v>4.564136</v>
+        <v>4.5641360000000004</v>
       </c>
       <c r="W6" s="1">
-        <v>948.860000</v>
+        <v>948.86</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.137500</v>
+        <v>-88.137500000000003</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>16441.372088</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.567048</v>
+        <v>4.5670479999999998</v>
       </c>
       <c r="AB6" s="1">
-        <v>955.786000</v>
+        <v>955.78599999999994</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.829200</v>
+        <v>-76.8292</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>16452.575257</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.570160</v>
+        <v>4.5701599999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>960.231000</v>
+        <v>960.23099999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.733600</v>
+        <v>-74.733599999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>16463.023495</v>
+        <v>16463.023495000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.573062</v>
+        <v>4.5730620000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>967.483000</v>
+        <v>967.48299999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.888400</v>
+        <v>-79.888400000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>16473.654205</v>
+        <v>16473.654204999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.576015</v>
+        <v>4.5760149999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>975.610000</v>
+        <v>975.61</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.785200</v>
+        <v>-91.785200000000003</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>16484.692176</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.579081</v>
+        <v>4.5790810000000004</v>
       </c>
       <c r="AV6" s="1">
-        <v>985.477000</v>
+        <v>985.47699999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.836000</v>
+        <v>-109.836</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>16495.460321</v>
+        <v>16495.460320999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.582072</v>
+        <v>4.5820720000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>993.791000</v>
+        <v>993.79100000000005</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.707000</v>
+        <v>-125.70699999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>16506.402563</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.585112</v>
+        <v>4.5851119999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1032.720000</v>
+        <v>1032.72</v>
       </c>
       <c r="BG6" s="1">
-        <v>-198.772000</v>
+        <v>-198.77199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>16517.210388</v>
@@ -1689,333 +2105,333 @@
         <v>4.588114</v>
       </c>
       <c r="BK6" s="1">
-        <v>1099.780000</v>
+        <v>1099.78</v>
       </c>
       <c r="BL6" s="1">
-        <v>-317.336000</v>
+        <v>-317.33600000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>16528.735924</v>
+        <v>16528.735924000001</v>
       </c>
       <c r="BO6" s="1">
         <v>4.591316</v>
       </c>
       <c r="BP6" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-504.621000</v>
+        <v>-504.62099999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>16539.966870</v>
+        <v>16539.96687</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.594435</v>
+        <v>4.5944349999999998</v>
       </c>
       <c r="BU6" s="1">
-        <v>1332.080000</v>
+        <v>1332.08</v>
       </c>
       <c r="BV6" s="1">
-        <v>-710.886000</v>
+        <v>-710.88599999999997</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>16550.647687</v>
+        <v>16550.647687000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.597402</v>
+        <v>4.5974019999999998</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1470.090000</v>
+        <v>1470.09</v>
       </c>
       <c r="CA6" s="1">
-        <v>-930.214000</v>
+        <v>-930.21400000000006</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>16562.121640</v>
+        <v>16562.121640000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.600589</v>
+        <v>4.6005890000000003</v>
       </c>
       <c r="CE6" s="1">
-        <v>1834.390000</v>
+        <v>1834.39</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1452.950000</v>
+        <v>-1452.95</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>16389.637404</v>
+        <v>16389.637404000001</v>
       </c>
       <c r="B7" s="1">
-        <v>4.552677</v>
+        <v>4.5526770000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>896.096000</v>
+        <v>896.096</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.032000</v>
+        <v>-200.03200000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>16399.375823</v>
+        <v>16399.375822999998</v>
       </c>
       <c r="G7" s="1">
-        <v>4.555382</v>
+        <v>4.5553819999999998</v>
       </c>
       <c r="H7" s="1">
-        <v>913.826000</v>
+        <v>913.82600000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.980000</v>
+        <v>-168.98</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>16409.836450</v>
+        <v>16409.836449999999</v>
       </c>
       <c r="L7" s="1">
-        <v>4.558288</v>
+        <v>4.5582880000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>936.293000</v>
+        <v>936.29300000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.374000</v>
+        <v>-119.374</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>16420.348660</v>
+        <v>16420.34866</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.561208</v>
+        <v>4.5612079999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>942.607000</v>
+        <v>942.60699999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.127000</v>
+        <v>-103.127</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>16431.547829</v>
+        <v>16431.547828999999</v>
       </c>
       <c r="V7" s="1">
-        <v>4.564319</v>
+        <v>4.5643190000000002</v>
       </c>
       <c r="W7" s="1">
-        <v>948.932000</v>
+        <v>948.93200000000002</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.224000</v>
+        <v>-88.224000000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>16442.044663</v>
+        <v>16442.044663000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.567235</v>
+        <v>4.5672350000000002</v>
       </c>
       <c r="AB7" s="1">
-        <v>955.968000</v>
+        <v>955.96799999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.782500</v>
+        <v>-76.782499999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>16452.956185</v>
+        <v>16452.956184999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.570266</v>
+        <v>4.5702660000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>960.336000</v>
+        <v>960.33600000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.867700</v>
+        <v>-74.867699999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>16463.371643</v>
+        <v>16463.371642999999</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.573159</v>
+        <v>4.5731590000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>967.479000</v>
+        <v>967.47900000000004</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.867800</v>
+        <v>-79.867800000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>16474.033645</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.576120</v>
+        <v>4.5761200000000004</v>
       </c>
       <c r="AQ7" s="1">
-        <v>975.598000</v>
+        <v>975.59799999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.772000</v>
+        <v>-91.772000000000006</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>16485.055246</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.579182</v>
+        <v>4.5791820000000003</v>
       </c>
       <c r="AV7" s="1">
-        <v>985.519000</v>
+        <v>985.51900000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.825000</v>
+        <v>-109.825</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>16495.888864</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.582191</v>
+        <v>4.5821909999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>993.807000</v>
+        <v>993.80700000000002</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.697000</v>
+        <v>-125.697</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>16506.842514</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.585234</v>
+        <v>4.5852339999999998</v>
       </c>
       <c r="BF7" s="1">
-        <v>1032.690000</v>
+        <v>1032.69</v>
       </c>
       <c r="BG7" s="1">
-        <v>-198.750000</v>
+        <v>-198.75</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>16517.546675</v>
+        <v>16517.546675000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.588207</v>
+        <v>4.5882069999999997</v>
       </c>
       <c r="BK7" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL7" s="1">
-        <v>-317.332000</v>
+        <v>-317.33199999999999</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>16529.133247</v>
+        <v>16529.133247000002</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.591426</v>
+        <v>4.5914260000000002</v>
       </c>
       <c r="BP7" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-504.660000</v>
+        <v>-504.66</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>16540.395877</v>
+        <v>16540.395876999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.594554</v>
+        <v>4.5945539999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1332.080000</v>
+        <v>1332.08</v>
       </c>
       <c r="BV7" s="1">
-        <v>-710.860000</v>
+        <v>-710.86</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>16551.076232</v>
+        <v>16551.076231999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.597521</v>
+        <v>4.5975210000000004</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1470.130000</v>
+        <v>1470.13</v>
       </c>
       <c r="CA7" s="1">
-        <v>-930.217000</v>
+        <v>-930.21699999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>16562.660297</v>
+        <v>16562.660296999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.600739</v>
+        <v>4.6007389999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1833.510000</v>
+        <v>1833.51</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1451.350000</v>
+        <v>-1451.35</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>16389.980141</v>
       </c>
@@ -2023,465 +2439,465 @@
         <v>4.552772</v>
       </c>
       <c r="C8" s="1">
-        <v>896.142000</v>
+        <v>896.14200000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.020000</v>
+        <v>-200.02</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>16399.722893</v>
+        <v>16399.722892999998</v>
       </c>
       <c r="G8" s="1">
-        <v>4.555479</v>
+        <v>4.5554790000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>914.025000</v>
+        <v>914.02499999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.839000</v>
+        <v>-168.839</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>16410.491665</v>
+        <v>16410.491665000001</v>
       </c>
       <c r="L8" s="1">
-        <v>4.558470</v>
+        <v>4.5584699999999998</v>
       </c>
       <c r="M8" s="1">
-        <v>936.012000</v>
+        <v>936.01199999999994</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.517000</v>
+        <v>-119.517</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>16421.012803</v>
+        <v>16421.012803000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.561392</v>
+        <v>4.5613919999999997</v>
       </c>
       <c r="R8" s="1">
-        <v>942.626000</v>
+        <v>942.62599999999998</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.115000</v>
+        <v>-103.11499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>16431.922310</v>
+        <v>16431.922310000002</v>
       </c>
       <c r="V8" s="1">
-        <v>4.564423</v>
+        <v>4.5644229999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>948.912000</v>
+        <v>948.91200000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.204900</v>
+        <v>-88.204899999999995</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>16442.413192</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.567337</v>
+        <v>4.5673370000000002</v>
       </c>
       <c r="AB8" s="1">
-        <v>955.826000</v>
+        <v>955.82600000000002</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.837800</v>
+        <v>-76.837800000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>16453.301368</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.570361</v>
+        <v>4.5703610000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>960.386000</v>
+        <v>960.38599999999997</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.839400</v>
+        <v>-74.839399999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>16463.720331</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.573256</v>
+        <v>4.5732559999999998</v>
       </c>
       <c r="AL8" s="1">
-        <v>967.497000</v>
+        <v>967.49699999999996</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.860700</v>
+        <v>-79.860699999999994</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>16474.391260</v>
+        <v>16474.39126</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.576220</v>
+        <v>4.5762200000000002</v>
       </c>
       <c r="AQ8" s="1">
-        <v>975.612000</v>
+        <v>975.61199999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.776100</v>
+        <v>-91.7761</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>16485.469902</v>
+        <v>16485.469902000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.579297</v>
+        <v>4.5792970000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>985.483000</v>
+        <v>985.48299999999995</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.810000</v>
+        <v>-109.81</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>16496.176544</v>
+        <v>16496.176544000002</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.582271</v>
+        <v>4.5822710000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>993.799000</v>
+        <v>993.79899999999998</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.716000</v>
+        <v>-125.71599999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>16507.126256</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.585313</v>
+        <v>4.5853130000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1032.700000</v>
+        <v>1032.7</v>
       </c>
       <c r="BG8" s="1">
-        <v>-198.757000</v>
+        <v>-198.75700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>16517.935539</v>
+        <v>16517.935538999998</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.588315</v>
+        <v>4.5883149999999997</v>
       </c>
       <c r="BK8" s="1">
-        <v>1099.820000</v>
+        <v>1099.82</v>
       </c>
       <c r="BL8" s="1">
-        <v>-317.371000</v>
+        <v>-317.37099999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
         <v>16529.554323</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.591543</v>
+        <v>4.5915429999999997</v>
       </c>
       <c r="BP8" s="1">
-        <v>1209.020000</v>
+        <v>1209.02</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-504.659000</v>
+        <v>-504.65899999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>16540.827925</v>
+        <v>16540.827925000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.594674</v>
+        <v>4.5946740000000004</v>
       </c>
       <c r="BU8" s="1">
-        <v>1331.920000</v>
+        <v>1331.92</v>
       </c>
       <c r="BV8" s="1">
-        <v>-710.818000</v>
+        <v>-710.81799999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>16551.491880</v>
+        <v>16551.491880000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.597637</v>
+        <v>4.5976369999999998</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1470.030000</v>
+        <v>1470.03</v>
       </c>
       <c r="CA8" s="1">
-        <v>-930.152000</v>
+        <v>-930.15200000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>16563.200439</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.600889</v>
+        <v>4.6008889999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>1833.370000</v>
+        <v>1833.37</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1453.080000</v>
+        <v>-1453.08</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>16390.319867</v>
+        <v>16390.319866999998</v>
       </c>
       <c r="B9" s="1">
         <v>4.552867</v>
       </c>
       <c r="C9" s="1">
-        <v>895.984000</v>
+        <v>895.98400000000004</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.207000</v>
+        <v>-200.20699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>16400.368351</v>
+        <v>16400.368351000001</v>
       </c>
       <c r="G9" s="1">
-        <v>4.555658</v>
+        <v>4.5556580000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>913.671000</v>
+        <v>913.67100000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.637000</v>
+        <v>-168.637</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>16410.873584</v>
+        <v>16410.873584000001</v>
       </c>
       <c r="L9" s="1">
-        <v>4.558576</v>
+        <v>4.5585760000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>936.254000</v>
+        <v>936.25400000000002</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.314000</v>
+        <v>-119.31399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>16421.394755</v>
+        <v>16421.394755000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.561499</v>
+        <v>4.5614990000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>942.656000</v>
+        <v>942.65599999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.154000</v>
+        <v>-103.154</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>16432.265572</v>
       </c>
       <c r="V9" s="1">
-        <v>4.564518</v>
+        <v>4.5645179999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>948.928000</v>
+        <v>948.928</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.182600</v>
+        <v>-88.182599999999994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>16442.837767</v>
+        <v>16442.837767000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.567455</v>
+        <v>4.5674549999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>955.795000</v>
+        <v>955.79499999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.778800</v>
+        <v>-76.778800000000004</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>16453.648568</v>
+        <v>16453.648568000001</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.570458</v>
+        <v>4.5704580000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>960.382000</v>
+        <v>960.38199999999995</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.823300</v>
+        <v>-74.823300000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>16464.132010</v>
+        <v>16464.132010000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.573370</v>
+        <v>4.5733699999999997</v>
       </c>
       <c r="AL9" s="1">
-        <v>967.453000</v>
+        <v>967.45299999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.889000</v>
+        <v>-79.888999999999996</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>16474.816087</v>
+        <v>16474.816086999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.576338</v>
+        <v>4.5763379999999998</v>
       </c>
       <c r="AQ9" s="1">
-        <v>975.592000</v>
+        <v>975.59199999999998</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.789000</v>
+        <v>-91.789000000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>16485.786845</v>
+        <v>16485.786844999999</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.579385</v>
+        <v>4.5793850000000003</v>
       </c>
       <c r="AV9" s="1">
-        <v>985.499000</v>
+        <v>985.49900000000002</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.802000</v>
+        <v>-109.80200000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>16496.539615</v>
+        <v>16496.539615000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.582372</v>
+        <v>4.5823720000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>993.805000</v>
+        <v>993.80499999999995</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.705000</v>
+        <v>-125.705</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>16507.486818</v>
+        <v>16507.486818000001</v>
       </c>
       <c r="BE9" s="1">
         <v>4.585413</v>
       </c>
       <c r="BF9" s="1">
-        <v>1032.710000</v>
+        <v>1032.71</v>
       </c>
       <c r="BG9" s="1">
-        <v>-198.770000</v>
+        <v>-198.77</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>16518.312123</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.588420</v>
+        <v>4.5884200000000002</v>
       </c>
       <c r="BK9" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL9" s="1">
-        <v>-317.367000</v>
+        <v>-317.36700000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>16530.372226</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.591770</v>
+        <v>4.5917700000000004</v>
       </c>
       <c r="BP9" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-504.671000</v>
+        <v>-504.67099999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>16541.250485</v>
@@ -2490,120 +2906,120 @@
         <v>4.594792</v>
       </c>
       <c r="BU9" s="1">
-        <v>1331.870000</v>
+        <v>1331.87</v>
       </c>
       <c r="BV9" s="1">
-        <v>-710.835000</v>
+        <v>-710.83500000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>16551.949190</v>
+        <v>16551.949189999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.597764</v>
+        <v>4.5977639999999997</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1470.100000</v>
+        <v>1470.1</v>
       </c>
       <c r="CA9" s="1">
-        <v>-930.281000</v>
+        <v>-930.28099999999995</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>16563.741079</v>
+        <v>16563.741078999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.601039</v>
+        <v>4.6010390000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1834.460000</v>
+        <v>1834.46</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1451.810000</v>
+        <v>-1451.81</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>16390.966156</v>
+        <v>16390.966155999999</v>
       </c>
       <c r="B10" s="1">
-        <v>4.553046</v>
+        <v>4.5530460000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>896.109000</v>
+        <v>896.10900000000004</v>
       </c>
       <c r="D10" s="1">
-        <v>-199.859000</v>
+        <v>-199.85900000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>16400.756047</v>
+        <v>16400.756046999999</v>
       </c>
       <c r="G10" s="1">
-        <v>4.555766</v>
+        <v>4.5557660000000002</v>
       </c>
       <c r="H10" s="1">
-        <v>913.599000</v>
+        <v>913.59900000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.831000</v>
+        <v>-168.83099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>16411.217343</v>
       </c>
       <c r="L10" s="1">
-        <v>4.558671</v>
+        <v>4.5586710000000004</v>
       </c>
       <c r="M10" s="1">
-        <v>936.341000</v>
+        <v>936.34100000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.513000</v>
+        <v>-119.51300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>16421.743423</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.561595</v>
+        <v>4.5615949999999996</v>
       </c>
       <c r="R10" s="1">
-        <v>942.608000</v>
+        <v>942.60799999999995</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.156000</v>
+        <v>-103.15600000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>16432.611251</v>
+        <v>16432.611250999998</v>
       </c>
       <c r="V10" s="1">
-        <v>4.564614</v>
+        <v>4.5646139999999997</v>
       </c>
       <c r="W10" s="1">
-        <v>948.963000</v>
+        <v>948.96299999999997</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.206600</v>
+        <v>-88.206599999999995</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>16443.391301</v>
@@ -2612,375 +3028,375 @@
         <v>4.567609</v>
       </c>
       <c r="AB10" s="1">
-        <v>955.774000</v>
+        <v>955.774</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.815000</v>
+        <v>-76.814999999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>16454.063223</v>
+        <v>16454.063223000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.570573</v>
+        <v>4.5705730000000004</v>
       </c>
       <c r="AG10" s="1">
-        <v>960.326000</v>
+        <v>960.32600000000002</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.825200</v>
+        <v>-74.825199999999995</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>16464.428649</v>
+        <v>16464.428649000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.573452</v>
+        <v>4.5734519999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>967.485000</v>
+        <v>967.48500000000001</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.874900</v>
+        <v>-79.874899999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>16475.113931</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.576421</v>
+        <v>4.5764209999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>975.594000</v>
+        <v>975.59400000000005</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.774000</v>
+        <v>-91.774000000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>16486.149453</v>
+        <v>16486.149453000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.579486</v>
+        <v>4.5794860000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>985.495000</v>
+        <v>985.495</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.836000</v>
+        <v>-109.836</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>16496.895742</v>
+        <v>16496.895742000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>4.582471</v>
       </c>
       <c r="BA10" s="1">
-        <v>993.775000</v>
+        <v>993.77499999999998</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.696000</v>
+        <v>-125.696</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>16507.846620</v>
+        <v>16507.84662</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.585513</v>
+        <v>4.5855129999999997</v>
       </c>
       <c r="BF10" s="1">
-        <v>1032.690000</v>
+        <v>1032.69</v>
       </c>
       <c r="BG10" s="1">
-        <v>-198.746000</v>
+        <v>-198.74600000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>16519.062449</v>
+        <v>16519.062449000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.588628</v>
+        <v>4.5886279999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL10" s="1">
-        <v>-317.387000</v>
+        <v>-317.387</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>16530.788898</v>
+        <v>16530.788897999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.591886</v>
+        <v>4.5918859999999997</v>
       </c>
       <c r="BP10" s="1">
-        <v>1208.980000</v>
+        <v>1208.98</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-504.671000</v>
+        <v>-504.67099999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>16541.666131</v>
+        <v>16541.666131000002</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.594907</v>
+        <v>4.5949070000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1331.820000</v>
+        <v>1331.82</v>
       </c>
       <c r="BV10" s="1">
-        <v>-710.776000</v>
+        <v>-710.77599999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>16552.399093</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.597889</v>
+        <v>4.5978890000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1470.020000</v>
+        <v>1470.02</v>
       </c>
       <c r="CA10" s="1">
-        <v>-930.164000</v>
+        <v>-930.16399999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>16564.596195</v>
+        <v>16564.596194999998</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.601277</v>
+        <v>4.6012769999999996</v>
       </c>
       <c r="CE10" s="1">
-        <v>1833.750000</v>
+        <v>1833.75</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1453.290000</v>
+        <v>-1453.29</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>16391.348109</v>
+        <v>16391.348108999999</v>
       </c>
       <c r="B11" s="1">
-        <v>4.553152</v>
+        <v>4.5531519999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>896.380000</v>
+        <v>896.38</v>
       </c>
       <c r="D11" s="1">
-        <v>-199.780000</v>
+        <v>-199.78</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>16401.100446</v>
       </c>
       <c r="G11" s="1">
-        <v>4.555861</v>
+        <v>4.5558610000000002</v>
       </c>
       <c r="H11" s="1">
-        <v>914.083000</v>
+        <v>914.08299999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.836000</v>
+        <v>-168.83600000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>16411.563024</v>
+        <v>16411.563023999999</v>
       </c>
       <c r="L11" s="1">
-        <v>4.558768</v>
+        <v>4.5587679999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>936.141000</v>
+        <v>936.14099999999996</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.418000</v>
+        <v>-119.41800000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>16422.093089</v>
+        <v>16422.093089000002</v>
       </c>
       <c r="Q11" s="1">
         <v>4.561693</v>
       </c>
       <c r="R11" s="1">
-        <v>942.582000</v>
+        <v>942.58199999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.137000</v>
+        <v>-103.137</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>16433.023923</v>
+        <v>16433.023923000001</v>
       </c>
       <c r="V11" s="1">
-        <v>4.564729</v>
+        <v>4.5647289999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>948.885000</v>
+        <v>948.88499999999999</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.209900</v>
+        <v>-88.209900000000005</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>16443.820341</v>
+        <v>16443.820340999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.567728</v>
+        <v>4.5677279999999998</v>
       </c>
       <c r="AB11" s="1">
-        <v>955.752000</v>
+        <v>955.75199999999995</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.839300</v>
+        <v>-76.839299999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>16454.351897</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.570653</v>
+        <v>4.5706530000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>960.282000</v>
+        <v>960.28200000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.717000</v>
+        <v>-74.716999999999999</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>16464.774363</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.573548</v>
+        <v>4.5735479999999997</v>
       </c>
       <c r="AL11" s="1">
-        <v>967.473000</v>
+        <v>967.47299999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.878600</v>
+        <v>-79.878600000000006</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>16475.473568</v>
+        <v>16475.473568000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.576520</v>
+        <v>4.5765200000000004</v>
       </c>
       <c r="AQ11" s="1">
-        <v>975.584000</v>
+        <v>975.58399999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.791100</v>
+        <v>-91.7911</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>16486.516958</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.579588</v>
+        <v>4.5795880000000002</v>
       </c>
       <c r="AV11" s="1">
-        <v>985.498000</v>
+        <v>985.49800000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.827000</v>
+        <v>-109.827</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>16497.614165</v>
+        <v>16497.614164999999</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.582671</v>
+        <v>4.5826710000000004</v>
       </c>
       <c r="BA11" s="1">
-        <v>993.807000</v>
+        <v>993.80700000000002</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.717000</v>
+        <v>-125.717</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>16508.570575</v>
+        <v>16508.570575000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.585714</v>
+        <v>4.5857140000000003</v>
       </c>
       <c r="BF11" s="1">
-        <v>1032.700000</v>
+        <v>1032.7</v>
       </c>
       <c r="BG11" s="1">
-        <v>-198.753000</v>
+        <v>-198.75299999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>16519.436928</v>
+        <v>16519.436927999999</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.588732</v>
+        <v>4.5887320000000003</v>
       </c>
       <c r="BK11" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL11" s="1">
-        <v>-317.353000</v>
+        <v>-317.35300000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>16531.184706</v>
@@ -2989,13 +3405,13 @@
         <v>4.591996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1208.980000</v>
+        <v>1208.98</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-504.664000</v>
+        <v>-504.66399999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>16542.097157</v>
@@ -3004,285 +3420,285 @@
         <v>4.595027</v>
       </c>
       <c r="BU11" s="1">
-        <v>1331.740000</v>
+        <v>1331.74</v>
       </c>
       <c r="BV11" s="1">
-        <v>-710.708000</v>
+        <v>-710.70799999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>16553.159186</v>
+        <v>16553.159186000001</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.598100</v>
+        <v>4.5980999999999996</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1470.100000</v>
+        <v>1470.1</v>
       </c>
       <c r="CA11" s="1">
-        <v>-930.190000</v>
+        <v>-930.19</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>16564.820407</v>
+        <v>16564.820406999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.601339</v>
+        <v>4.6013390000000003</v>
       </c>
       <c r="CE11" s="1">
-        <v>1833.640000</v>
+        <v>1833.64</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1453.030000</v>
+        <v>-1453.03</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>16391.692826</v>
+        <v>16391.692825999999</v>
       </c>
       <c r="B12" s="1">
         <v>4.553248</v>
       </c>
       <c r="C12" s="1">
-        <v>896.232000</v>
+        <v>896.23199999999997</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.754000</v>
+        <v>-199.75399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>16401.445133</v>
+        <v>16401.445133000001</v>
       </c>
       <c r="G12" s="1">
-        <v>4.555957</v>
+        <v>4.5559570000000003</v>
       </c>
       <c r="H12" s="1">
-        <v>913.633000</v>
+        <v>913.63300000000004</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.175000</v>
+        <v>-169.17500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>16411.991569</v>
+        <v>16411.991569000002</v>
       </c>
       <c r="L12" s="1">
-        <v>4.558887</v>
+        <v>4.5588870000000004</v>
       </c>
       <c r="M12" s="1">
-        <v>936.066000</v>
+        <v>936.06600000000003</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.250000</v>
+        <v>-119.25</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>16422.512217</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.561809</v>
+        <v>4.5618090000000002</v>
       </c>
       <c r="R12" s="1">
-        <v>942.602000</v>
+        <v>942.60199999999998</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.108000</v>
+        <v>-103.108</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>16433.317091</v>
+        <v>16433.317091000001</v>
       </c>
       <c r="V12" s="1">
-        <v>4.564810</v>
+        <v>4.5648099999999996</v>
       </c>
       <c r="W12" s="1">
-        <v>948.916000</v>
+        <v>948.91600000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.183100</v>
+        <v>-88.183099999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>16444.168903</v>
+        <v>16444.168903000002</v>
       </c>
       <c r="AA12" s="1">
         <v>4.567825</v>
       </c>
       <c r="AB12" s="1">
-        <v>955.836000</v>
+        <v>955.83600000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.806700</v>
+        <v>-76.806700000000006</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>16454.695655</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.570749</v>
+        <v>4.5707490000000002</v>
       </c>
       <c r="AG12" s="1">
-        <v>960.369000</v>
+        <v>960.36900000000003</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.819000</v>
+        <v>-74.819000000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>16465.123048</v>
+        <v>16465.123048000001</v>
       </c>
       <c r="AK12" s="1">
         <v>4.573645</v>
       </c>
       <c r="AL12" s="1">
-        <v>967.486000</v>
+        <v>967.48599999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.883900</v>
+        <v>-79.883899999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>16475.835146</v>
+        <v>16475.835146000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.576621</v>
+        <v>4.5766210000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>975.558000</v>
+        <v>975.55799999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.797800</v>
+        <v>-91.797799999999995</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>16487.242603</v>
+        <v>16487.242602999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.579790</v>
+        <v>4.57979</v>
       </c>
       <c r="AV12" s="1">
-        <v>985.492000</v>
+        <v>985.49199999999996</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.835000</v>
+        <v>-109.83499999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>16497.974574</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.582771</v>
+        <v>4.5827710000000002</v>
       </c>
       <c r="BA12" s="1">
-        <v>993.775000</v>
+        <v>993.77499999999998</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.695000</v>
+        <v>-125.69499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>16508.960432</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.585822</v>
+        <v>4.5858220000000003</v>
       </c>
       <c r="BF12" s="1">
-        <v>1032.690000</v>
+        <v>1032.69</v>
       </c>
       <c r="BG12" s="1">
-        <v>-198.759000</v>
+        <v>-198.75899999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>16519.812897</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.588837</v>
+        <v>4.5888369999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1099.820000</v>
+        <v>1099.82</v>
       </c>
       <c r="BL12" s="1">
-        <v>-317.336000</v>
+        <v>-317.33600000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>16531.914784</v>
+        <v>16531.914784000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.592199</v>
+        <v>4.5921989999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1208.970000</v>
+        <v>1208.97</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-504.634000</v>
+        <v>-504.63400000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>16542.819331</v>
+        <v>16542.819330999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.595228</v>
+        <v>4.5952279999999996</v>
       </c>
       <c r="BU12" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="BV12" s="1">
-        <v>-710.607000</v>
+        <v>-710.60699999999997</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>16553.292515</v>
+        <v>16553.292515000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.598137</v>
+        <v>4.5981370000000004</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1470.140000</v>
+        <v>1470.14</v>
       </c>
       <c r="CA12" s="1">
-        <v>-930.269000</v>
+        <v>-930.26900000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>16565.340181</v>
@@ -3291,422 +3707,422 @@
         <v>4.601483</v>
       </c>
       <c r="CE12" s="1">
-        <v>1834.760000</v>
+        <v>1834.76</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1452.330000</v>
+        <v>-1452.33</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>16392.034041</v>
+        <v>16392.034040999999</v>
       </c>
       <c r="B13" s="1">
-        <v>4.553343</v>
+        <v>4.5533429999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>896.273000</v>
+        <v>896.27300000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-199.934000</v>
+        <v>-199.934</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>16401.868716</v>
+        <v>16401.868716000001</v>
       </c>
       <c r="G13" s="1">
-        <v>4.556075</v>
+        <v>4.5560749999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>913.652000</v>
+        <v>913.65200000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.057000</v>
+        <v>-169.05699999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>16412.254447</v>
+        <v>16412.254446999999</v>
       </c>
       <c r="L13" s="1">
-        <v>4.558960</v>
+        <v>4.5589599999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>936.032000</v>
+        <v>936.03200000000004</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.363000</v>
+        <v>-119.363</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>16422.794469</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.561887</v>
+        <v>4.5618869999999996</v>
       </c>
       <c r="R13" s="1">
-        <v>942.590000</v>
+        <v>942.59</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.102000</v>
+        <v>-103.102</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>16433.660307</v>
+        <v>16433.660306999998</v>
       </c>
       <c r="V13" s="1">
-        <v>4.564906</v>
+        <v>4.5649059999999997</v>
       </c>
       <c r="W13" s="1">
-        <v>948.971000</v>
+        <v>948.971</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.189300</v>
+        <v>-88.189300000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>16444.517715</v>
+        <v>16444.517715000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.567922</v>
+        <v>4.5679220000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>955.806000</v>
+        <v>955.80600000000004</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.763800</v>
+        <v>-76.763800000000003</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>16455.038390</v>
+        <v>16455.038390000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.570844</v>
+        <v>4.5708440000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>960.384000</v>
+        <v>960.38400000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.811600</v>
+        <v>-74.811599999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>16465.820888</v>
+        <v>16465.820887999998</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.573839</v>
+        <v>4.5738390000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>967.494000</v>
+        <v>967.49400000000003</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.880300</v>
+        <v>-79.880300000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>16476.558777</v>
+        <v>16476.558776999998</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.576822</v>
+        <v>4.5768219999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>975.579000</v>
+        <v>975.57899999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.779100</v>
+        <v>-91.7791</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>16487.637451</v>
+        <v>16487.637450999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.579899</v>
+        <v>4.5798990000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>985.483000</v>
+        <v>985.48299999999995</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.822000</v>
+        <v>-109.822</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>16498.331662</v>
+        <v>16498.331662000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.582870</v>
+        <v>4.5828699999999998</v>
       </c>
       <c r="BA13" s="1">
-        <v>993.792000</v>
+        <v>993.79200000000003</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.705000</v>
+        <v>-125.705</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>16509.516482</v>
+        <v>16509.516481999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.585977</v>
+        <v>4.5859769999999997</v>
       </c>
       <c r="BF13" s="1">
-        <v>1032.710000</v>
+        <v>1032.71</v>
       </c>
       <c r="BG13" s="1">
-        <v>-198.728000</v>
+        <v>-198.72800000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>16520.501839</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.589028</v>
+        <v>4.5890279999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL13" s="1">
-        <v>-317.348000</v>
+        <v>-317.34800000000001</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>16532.423681</v>
       </c>
       <c r="BO13" s="1">
-        <v>4.592340</v>
+        <v>4.5923400000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-504.697000</v>
+        <v>-504.697</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>16542.939857</v>
+        <v>16542.939857000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.595261</v>
+        <v>4.5952609999999998</v>
       </c>
       <c r="BU13" s="1">
-        <v>1331.700000</v>
+        <v>1331.7</v>
       </c>
       <c r="BV13" s="1">
-        <v>-710.600000</v>
+        <v>-710.6</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>16553.718916</v>
+        <v>16553.718916000002</v>
       </c>
       <c r="BY13" s="1">
         <v>4.598255</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1470.160000</v>
+        <v>1470.16</v>
       </c>
       <c r="CA13" s="1">
-        <v>-930.168000</v>
+        <v>-930.16800000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>16565.857517</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.601627</v>
+        <v>4.6016269999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>1834.370000</v>
+        <v>1834.37</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1453.150000</v>
+        <v>-1453.15</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>16392.461593</v>
       </c>
       <c r="B14" s="1">
-        <v>4.553462</v>
+        <v>4.5534619999999997</v>
       </c>
       <c r="C14" s="1">
-        <v>896.301000</v>
+        <v>896.30100000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.010000</v>
+        <v>-200.01</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>16402.136556</v>
+        <v>16402.136556000001</v>
       </c>
       <c r="G14" s="1">
-        <v>4.556149</v>
+        <v>4.5561489999999996</v>
       </c>
       <c r="H14" s="1">
-        <v>913.849000</v>
+        <v>913.84900000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.882000</v>
+        <v>-168.88200000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>16412.599694</v>
       </c>
       <c r="L14" s="1">
-        <v>4.559055</v>
+        <v>4.5590549999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>936.070000</v>
+        <v>936.07</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.383000</v>
+        <v>-119.383</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>16423.140640</v>
+        <v>16423.140640000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.561984</v>
+        <v>4.5619839999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>942.599000</v>
+        <v>942.59900000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.112000</v>
+        <v>-103.11199999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>16434.006002</v>
+        <v>16434.006001999998</v>
       </c>
       <c r="V14" s="1">
-        <v>4.565002</v>
+        <v>4.5650019999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>948.918000</v>
+        <v>948.91800000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.224800</v>
+        <v>-88.224800000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>16445.216083</v>
+        <v>16445.216082999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.568116</v>
+        <v>4.5681159999999998</v>
       </c>
       <c r="AB14" s="1">
-        <v>955.799000</v>
+        <v>955.79899999999998</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.761700</v>
+        <v>-76.761700000000005</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>16455.730810</v>
+        <v>16455.730810000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.571036</v>
+        <v>4.5710360000000003</v>
       </c>
       <c r="AG14" s="1">
-        <v>960.346000</v>
+        <v>960.346</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.799100</v>
+        <v>-74.799099999999996</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>16466.166103</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.573935</v>
+        <v>4.5739349999999996</v>
       </c>
       <c r="AL14" s="1">
-        <v>967.476000</v>
+        <v>967.476</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.891500</v>
+        <v>-79.891499999999994</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>16476.937225</v>
+        <v>16476.937225000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.576927</v>
+        <v>4.5769270000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>975.579000</v>
+        <v>975.57899999999995</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.762000</v>
+        <v>-91.762</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>16488.001980</v>
+        <v>16488.001980000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.580001</v>
+        <v>4.5800010000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>985.477000</v>
+        <v>985.47699999999998</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.825000</v>
+        <v>-109.825</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
         <v>16499.000796</v>
@@ -3715,58 +4131,58 @@
         <v>4.583056</v>
       </c>
       <c r="BA14" s="1">
-        <v>993.760000</v>
+        <v>993.76</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.711000</v>
+        <v>-125.711</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>16509.966318</v>
+        <v>16509.966317999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.586102</v>
+        <v>4.5861020000000003</v>
       </c>
       <c r="BF14" s="1">
-        <v>1032.690000</v>
+        <v>1032.69</v>
       </c>
       <c r="BG14" s="1">
-        <v>-198.718000</v>
+        <v>-198.71799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>16520.939311</v>
+        <v>16520.939310999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.589150</v>
+        <v>4.5891500000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1099.780000</v>
+        <v>1099.78</v>
       </c>
       <c r="BL14" s="1">
-        <v>-317.359000</v>
+        <v>-317.35899999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>16532.842304</v>
+        <v>16532.842304000002</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.592456</v>
+        <v>4.5924560000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-504.676000</v>
+        <v>-504.67599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>16543.378321</v>
@@ -3775,75 +4191,75 @@
         <v>4.595383</v>
       </c>
       <c r="BU14" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="BV14" s="1">
-        <v>-710.457000</v>
+        <v>-710.45699999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>16554.134099</v>
+        <v>16554.134098999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.598371</v>
+        <v>4.5983710000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1470.060000</v>
+        <v>1470.06</v>
       </c>
       <c r="CA14" s="1">
-        <v>-930.140000</v>
+        <v>-930.14</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>16566.412567</v>
+        <v>16566.412566999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.601781</v>
+        <v>4.6017809999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>1833.420000</v>
+        <v>1833.42</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1452.880000</v>
+        <v>-1452.88</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>16392.731418</v>
+        <v>16392.731417999999</v>
       </c>
       <c r="B15" s="1">
-        <v>4.553537</v>
+        <v>4.5535370000000004</v>
       </c>
       <c r="C15" s="1">
-        <v>896.074000</v>
+        <v>896.07399999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.080000</v>
+        <v>-200.08</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>16402.478332</v>
+        <v>16402.478331999999</v>
       </c>
       <c r="G15" s="1">
-        <v>4.556244</v>
+        <v>4.5562440000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>913.764000</v>
+        <v>913.76400000000001</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.980000</v>
+        <v>-168.98</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>16412.944914</v>
@@ -3852,874 +4268,874 @@
         <v>4.559151</v>
       </c>
       <c r="M15" s="1">
-        <v>936.043000</v>
+        <v>936.04300000000001</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.234000</v>
+        <v>-119.23399999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>16423.489327</v>
+        <v>16423.489326999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.562080</v>
+        <v>4.5620799999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>942.630000</v>
+        <v>942.63</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.148000</v>
+        <v>-103.148</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>16434.689985</v>
+        <v>16434.689985000001</v>
       </c>
       <c r="V15" s="1">
-        <v>4.565192</v>
+        <v>4.5651919999999997</v>
       </c>
       <c r="W15" s="1">
-        <v>948.816000</v>
+        <v>948.81600000000003</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.192700</v>
+        <v>-88.192700000000002</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>16445.562787</v>
+        <v>16445.562786999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.568212</v>
+        <v>4.5682119999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>955.833000</v>
+        <v>955.83299999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.858800</v>
+        <v>-76.858800000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>16456.070038</v>
+        <v>16456.070038000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.571131</v>
+        <v>4.5711310000000003</v>
       </c>
       <c r="AG15" s="1">
-        <v>960.483000</v>
+        <v>960.48299999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.790700</v>
+        <v>-74.790700000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>16466.516775</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.574032</v>
+        <v>4.5740319999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>967.491000</v>
+        <v>967.49099999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.888200</v>
+        <v>-79.888199999999998</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>16477.611784</v>
+        <v>16477.611784000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.577114</v>
+        <v>4.5771139999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>975.580000</v>
+        <v>975.58</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.785400</v>
+        <v>-91.785399999999996</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>16488.685465</v>
+        <v>16488.685464999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.580190</v>
+        <v>4.58019</v>
       </c>
       <c r="AV15" s="1">
-        <v>985.485000</v>
+        <v>985.48500000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.826000</v>
+        <v>-109.82599999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>16499.440715</v>
+        <v>16499.440715000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.583178</v>
+        <v>4.5831780000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>993.785000</v>
+        <v>993.78499999999997</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.697000</v>
+        <v>-125.697</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>16510.403294</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.586223</v>
+        <v>4.5862230000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1032.690000</v>
+        <v>1032.69</v>
       </c>
       <c r="BG15" s="1">
-        <v>-198.743000</v>
+        <v>-198.74299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>16521.318254</v>
+        <v>16521.318254000002</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.589255</v>
+        <v>4.5892549999999996</v>
       </c>
       <c r="BK15" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL15" s="1">
-        <v>-317.348000</v>
+        <v>-317.34800000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>16533.240624</v>
+        <v>16533.240623999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.592567</v>
+        <v>4.5925669999999998</v>
       </c>
       <c r="BP15" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-504.654000</v>
+        <v>-504.654</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>16543.899120</v>
+        <v>16543.899119999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.595528</v>
+        <v>4.5955279999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1331.750000</v>
+        <v>1331.75</v>
       </c>
       <c r="BV15" s="1">
-        <v>-710.387000</v>
+        <v>-710.38699999999994</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>16554.587444</v>
+        <v>16554.587444000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.598497</v>
+        <v>4.5984970000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1470.180000</v>
+        <v>1470.18</v>
       </c>
       <c r="CA15" s="1">
-        <v>-930.230000</v>
+        <v>-930.23</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>16566.940770</v>
+        <v>16566.940770000001</v>
       </c>
       <c r="CD15" s="1">
         <v>4.601928</v>
       </c>
       <c r="CE15" s="1">
-        <v>1834.340000</v>
+        <v>1834.34</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1452.740000</v>
+        <v>-1452.74</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>16393.069689</v>
       </c>
       <c r="B16" s="1">
-        <v>4.553630</v>
+        <v>4.5536300000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>896.224000</v>
+        <v>896.22400000000005</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.160000</v>
+        <v>-200.16</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>16402.826491</v>
       </c>
       <c r="G16" s="1">
-        <v>4.556341</v>
+        <v>4.5563409999999998</v>
       </c>
       <c r="H16" s="1">
-        <v>913.686000</v>
+        <v>913.68600000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.726000</v>
+        <v>-168.726</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>16413.632366</v>
+        <v>16413.632366000002</v>
       </c>
       <c r="L16" s="1">
         <v>4.559342</v>
       </c>
       <c r="M16" s="1">
-        <v>935.993000</v>
+        <v>935.99300000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.354000</v>
+        <v>-119.354</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>16424.186206</v>
+        <v>16424.186205999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.562274</v>
+        <v>4.5622740000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>942.606000</v>
+        <v>942.60599999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.158000</v>
+        <v>-103.158</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>16435.036266</v>
+        <v>16435.036265999999</v>
       </c>
       <c r="V16" s="1">
-        <v>4.565288</v>
+        <v>4.5652879999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>948.911000</v>
+        <v>948.91099999999994</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.175800</v>
+        <v>-88.175799999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>16445.910978</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.568309</v>
+        <v>4.5683090000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>955.854000</v>
+        <v>955.85400000000004</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.803500</v>
+        <v>-76.8035</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>16456.414292</v>
+        <v>16456.414292000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.571226</v>
+        <v>4.5712260000000002</v>
       </c>
       <c r="AG16" s="1">
-        <v>960.372000</v>
+        <v>960.37199999999996</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.653500</v>
+        <v>-74.653499999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>16467.168054</v>
+        <v>16467.168054000002</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.574213</v>
+        <v>4.5742130000000003</v>
       </c>
       <c r="AL16" s="1">
-        <v>967.466000</v>
+        <v>967.46600000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.876900</v>
+        <v>-79.876900000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>16478.018504</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.577227</v>
+        <v>4.5772269999999997</v>
       </c>
       <c r="AQ16" s="1">
-        <v>975.579000</v>
+        <v>975.57899999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.785400</v>
+        <v>-91.785399999999996</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>16489.123929</v>
+        <v>16489.123929000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.580312</v>
+        <v>4.5803120000000002</v>
       </c>
       <c r="AV16" s="1">
-        <v>985.491000</v>
+        <v>985.49099999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.838000</v>
+        <v>-109.83799999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>16499.802331</v>
+        <v>16499.802330999999</v>
       </c>
       <c r="AZ16" s="1">
         <v>4.583278</v>
       </c>
       <c r="BA16" s="1">
-        <v>993.806000</v>
+        <v>993.80600000000004</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.713000</v>
+        <v>-125.71299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>16510.790172</v>
+        <v>16510.790172000001</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.586331</v>
+        <v>4.5863310000000004</v>
       </c>
       <c r="BF16" s="1">
-        <v>1032.670000</v>
+        <v>1032.67</v>
       </c>
       <c r="BG16" s="1">
-        <v>-198.738000</v>
+        <v>-198.738</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>16521.690751</v>
+        <v>16521.690750999998</v>
       </c>
       <c r="BJ16" s="1">
         <v>4.589359</v>
       </c>
       <c r="BK16" s="1">
-        <v>1099.830000</v>
+        <v>1099.83</v>
       </c>
       <c r="BL16" s="1">
-        <v>-317.328000</v>
+        <v>-317.32799999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>16533.663218</v>
+        <v>16533.663218000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.592684</v>
+        <v>4.5926840000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-504.629000</v>
+        <v>-504.62900000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>16544.219536</v>
+        <v>16544.219536000001</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.595617</v>
+        <v>4.5956169999999998</v>
       </c>
       <c r="BU16" s="1">
-        <v>1331.830000</v>
+        <v>1331.83</v>
       </c>
       <c r="BV16" s="1">
-        <v>-710.360000</v>
+        <v>-710.36</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>16555.038273</v>
+        <v>16555.038272999998</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.598622</v>
+        <v>4.5986219999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1469.970000</v>
+        <v>1469.97</v>
       </c>
       <c r="CA16" s="1">
-        <v>-930.221000</v>
+        <v>-930.221</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>16567.459624</v>
+        <v>16567.459623999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.602072</v>
+        <v>4.6020719999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>1834.170000</v>
+        <v>1834.17</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1451.330000</v>
+        <v>-1451.33</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>16393.641116</v>
+        <v>16393.641115999999</v>
       </c>
       <c r="B17" s="1">
-        <v>4.553789</v>
+        <v>4.5537890000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>896.112000</v>
+        <v>896.11199999999997</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.292000</v>
+        <v>-200.292</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>16403.514442</v>
       </c>
       <c r="G17" s="1">
-        <v>4.556532</v>
+        <v>4.5565319999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>913.253000</v>
+        <v>913.25300000000004</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.866000</v>
+        <v>-168.86600000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>16413.983500</v>
+        <v>16413.983499999998</v>
       </c>
       <c r="L17" s="1">
-        <v>4.559440</v>
+        <v>4.5594400000000004</v>
       </c>
       <c r="M17" s="1">
-        <v>936.093000</v>
+        <v>936.09299999999996</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.651000</v>
+        <v>-119.651</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>16424.533935</v>
+        <v>16424.533934999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.562371</v>
+        <v>4.5623709999999997</v>
       </c>
       <c r="R17" s="1">
-        <v>942.570000</v>
+        <v>942.57</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.125000</v>
+        <v>-103.125</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>16435.376945</v>
       </c>
       <c r="V17" s="1">
-        <v>4.565382</v>
+        <v>4.5653819999999996</v>
       </c>
       <c r="W17" s="1">
-        <v>948.947000</v>
+        <v>948.947</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.230500</v>
+        <v>-88.230500000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>16446.574625</v>
+        <v>16446.574625000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.568493</v>
+        <v>4.5684930000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>955.741000</v>
+        <v>955.74099999999999</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.827700</v>
+        <v>-76.827699999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>16457.060051</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.571406</v>
+        <v>4.5714059999999996</v>
       </c>
       <c r="AG17" s="1">
-        <v>960.341000</v>
+        <v>960.34100000000001</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.851500</v>
+        <v>-74.851500000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>16467.562870</v>
+        <v>16467.562870000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.574323</v>
+        <v>4.5743229999999997</v>
       </c>
       <c r="AL17" s="1">
-        <v>967.492000</v>
+        <v>967.49199999999996</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.871200</v>
+        <v>-79.871200000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>16478.377111</v>
+        <v>16478.377111000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.577327</v>
+        <v>4.5773270000000004</v>
       </c>
       <c r="AQ17" s="1">
-        <v>975.581000</v>
+        <v>975.58100000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.793400</v>
+        <v>-91.793400000000005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>16489.486512</v>
+        <v>16489.486511999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.580413</v>
+        <v>4.5804130000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>985.480000</v>
+        <v>985.48</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.840000</v>
+        <v>-109.84</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>16500.157434</v>
+        <v>16500.157434000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.583377</v>
+        <v>4.5833769999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>993.771000</v>
+        <v>993.77099999999996</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.710000</v>
+        <v>-125.71</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>16511.211771</v>
+        <v>16511.211770999998</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.586448</v>
+        <v>4.5864479999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1032.680000</v>
+        <v>1032.68</v>
       </c>
       <c r="BG17" s="1">
-        <v>-198.750000</v>
+        <v>-198.75</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>16522.115821</v>
+        <v>16522.115820999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.589477</v>
+        <v>4.5894769999999996</v>
       </c>
       <c r="BK17" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL17" s="1">
-        <v>-317.381000</v>
+        <v>-317.38099999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>16534.060879</v>
+        <v>16534.060879000001</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.592795</v>
+        <v>4.5927949999999997</v>
       </c>
       <c r="BP17" s="1">
-        <v>1208.910000</v>
+        <v>1208.9100000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-504.654000</v>
+        <v>-504.654</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>16544.648080</v>
+        <v>16544.648079999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.595736</v>
+        <v>4.5957359999999996</v>
       </c>
       <c r="BU17" s="1">
-        <v>1331.860000</v>
+        <v>1331.86</v>
       </c>
       <c r="BV17" s="1">
-        <v>-710.297000</v>
+        <v>-710.29700000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>16555.496081</v>
+        <v>16555.496081000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.598749</v>
+        <v>4.5987489999999998</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1470.010000</v>
+        <v>1470.01</v>
       </c>
       <c r="CA17" s="1">
-        <v>-930.249000</v>
+        <v>-930.24900000000002</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>16567.976417</v>
+        <v>16567.976417000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.602216</v>
+        <v>4.6022160000000003</v>
       </c>
       <c r="CE17" s="1">
-        <v>1832.800000</v>
+        <v>1832.8</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1451.780000</v>
+        <v>-1451.78</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>16393.758631</v>
+        <v>16393.758631000001</v>
       </c>
       <c r="B18" s="1">
-        <v>4.553822</v>
+        <v>4.5538220000000003</v>
       </c>
       <c r="C18" s="1">
-        <v>896.121000</v>
+        <v>896.12099999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-199.913000</v>
+        <v>-199.91300000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>16403.856681</v>
+        <v>16403.856681000001</v>
       </c>
       <c r="G18" s="1">
-        <v>4.556627</v>
+        <v>4.5566269999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>913.753000</v>
+        <v>913.75300000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.950000</v>
+        <v>-168.95</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>16414.330699</v>
+        <v>16414.330698999998</v>
       </c>
       <c r="L18" s="1">
-        <v>4.559536</v>
+        <v>4.5595359999999996</v>
       </c>
       <c r="M18" s="1">
-        <v>935.959000</v>
+        <v>935.95899999999995</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.410000</v>
+        <v>-119.41</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>16424.882622</v>
+        <v>16424.882622000001</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.562467</v>
+        <v>4.5624669999999998</v>
       </c>
       <c r="R18" s="1">
-        <v>942.571000</v>
+        <v>942.57100000000003</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.109000</v>
+        <v>-103.10899999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>16436.033151</v>
       </c>
       <c r="V18" s="1">
-        <v>4.565565</v>
+        <v>4.5655650000000003</v>
       </c>
       <c r="W18" s="1">
-        <v>948.820000</v>
+        <v>948.82</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.147800</v>
+        <v>-88.147800000000004</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>16446.956546</v>
+        <v>16446.956546000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.568599</v>
+        <v>4.5685989999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>955.752000</v>
+        <v>955.75199999999995</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.768600</v>
+        <v>-76.768600000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>16457.444450</v>
+        <v>16457.444449999999</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.571512</v>
+        <v>4.5715120000000002</v>
       </c>
       <c r="AG18" s="1">
-        <v>960.312000</v>
+        <v>960.31200000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.815900</v>
+        <v>-74.815899999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>16467.910533</v>
+        <v>16467.910532999998</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.574420</v>
+        <v>4.5744199999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>967.488000</v>
+        <v>967.48800000000006</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.877600</v>
+        <v>-79.877600000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>16478.740184</v>
+        <v>16478.740183999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.577428</v>
+        <v>4.5774280000000003</v>
       </c>
       <c r="AQ18" s="1">
-        <v>975.566000</v>
+        <v>975.56600000000003</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.803100</v>
+        <v>-91.803100000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>16489.852056</v>
@@ -4728,58 +5144,58 @@
         <v>4.580514</v>
       </c>
       <c r="AV18" s="1">
-        <v>985.495000</v>
+        <v>985.495</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.814000</v>
+        <v>-109.81399999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>16500.578043</v>
+        <v>16500.578043000001</v>
       </c>
       <c r="AZ18" s="1">
         <v>4.583494</v>
       </c>
       <c r="BA18" s="1">
-        <v>993.812000</v>
+        <v>993.81200000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.697000</v>
+        <v>-125.697</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>16511.514363</v>
+        <v>16511.514362999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.586532</v>
+        <v>4.5865320000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1032.700000</v>
+        <v>1032.7</v>
       </c>
       <c r="BG18" s="1">
-        <v>-198.742000</v>
+        <v>-198.74199999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>16522.467517</v>
+        <v>16522.467517000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.589574</v>
+        <v>4.5895739999999998</v>
       </c>
       <c r="BK18" s="1">
-        <v>1099.770000</v>
+        <v>1099.77</v>
       </c>
       <c r="BL18" s="1">
-        <v>-317.362000</v>
+        <v>-317.36200000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>16534.481086</v>
@@ -4788,1570 +5204,1570 @@
         <v>4.592911</v>
       </c>
       <c r="BP18" s="1">
-        <v>1208.920000</v>
+        <v>1208.92</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-504.671000</v>
+        <v>-504.67099999999999</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>16545.062736</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.595851</v>
+        <v>4.5958509999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1331.980000</v>
+        <v>1331.98</v>
       </c>
       <c r="BV18" s="1">
-        <v>-710.269000</v>
+        <v>-710.26900000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>16555.942341</v>
+        <v>16555.942341000002</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.598873</v>
+        <v>4.5988730000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1470.140000</v>
+        <v>1470.14</v>
       </c>
       <c r="CA18" s="1">
-        <v>-930.204000</v>
+        <v>-930.20399999999995</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>16568.497746</v>
+        <v>16568.497746000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.602360</v>
+        <v>4.60236</v>
       </c>
       <c r="CE18" s="1">
-        <v>1833.180000</v>
+        <v>1833.18</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1452.970000</v>
+        <v>-1452.97</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>16394.098887</v>
       </c>
       <c r="B19" s="1">
-        <v>4.553916</v>
+        <v>4.5539160000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>896.147000</v>
+        <v>896.14700000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.000000</v>
+        <v>-200</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>16404.203387</v>
+        <v>16404.203387000001</v>
       </c>
       <c r="G19" s="1">
-        <v>4.556723</v>
+        <v>4.5567229999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>913.519000</v>
+        <v>913.51900000000001</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.051000</v>
+        <v>-169.05099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>16414.976033</v>
+        <v>16414.976032999999</v>
       </c>
       <c r="L19" s="1">
-        <v>4.559716</v>
+        <v>4.5597159999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>936.313000</v>
+        <v>936.31299999999999</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.487000</v>
+        <v>-119.48699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>16425.527389</v>
+        <v>16425.527388999999</v>
       </c>
       <c r="Q19" s="1">
         <v>4.562646</v>
       </c>
       <c r="R19" s="1">
-        <v>942.621000</v>
+        <v>942.62099999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.094000</v>
+        <v>-103.09399999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>16436.406640</v>
+        <v>16436.406640000001</v>
       </c>
       <c r="V19" s="1">
-        <v>4.565669</v>
+        <v>4.5656689999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>948.861000</v>
+        <v>948.86099999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.166000</v>
+        <v>-88.165999999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>16447.306722</v>
+        <v>16447.306722000001</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.568696</v>
+        <v>4.5686960000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>955.849000</v>
+        <v>955.84900000000005</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.728400</v>
+        <v>-76.728399999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>16457.787683</v>
+        <v>16457.787682999999</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.571608</v>
+        <v>4.5716080000000003</v>
       </c>
       <c r="AG19" s="1">
-        <v>960.222000</v>
+        <v>960.22199999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.808000</v>
+        <v>-74.808000000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>16468.261728</v>
+        <v>16468.261728000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.574517</v>
+        <v>4.5745170000000002</v>
       </c>
       <c r="AL19" s="1">
-        <v>967.496000</v>
+        <v>967.49599999999998</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.859700</v>
+        <v>-79.859700000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>16479.163766</v>
+        <v>16479.163766000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.577545</v>
+        <v>4.5775449999999998</v>
       </c>
       <c r="AQ19" s="1">
-        <v>975.581000</v>
+        <v>975.58100000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.794500</v>
+        <v>-91.794499999999999</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>16490.283575</v>
+        <v>16490.283575000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.580634</v>
+        <v>4.5806339999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>985.472000</v>
+        <v>985.47199999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.815000</v>
+        <v>-109.815</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>16500.876137</v>
+        <v>16500.876136999999</v>
       </c>
       <c r="AZ19" s="1">
         <v>4.583577</v>
       </c>
       <c r="BA19" s="1">
-        <v>993.799000</v>
+        <v>993.79899999999998</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.731000</v>
+        <v>-125.73099999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>16511.873466</v>
+        <v>16511.873466000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.586632</v>
+        <v>4.5866319999999998</v>
       </c>
       <c r="BF19" s="1">
-        <v>1032.680000</v>
+        <v>1032.68</v>
       </c>
       <c r="BG19" s="1">
-        <v>-198.743000</v>
+        <v>-198.74299999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>16522.843452</v>
+        <v>16522.843452000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.589679</v>
+        <v>4.5896790000000003</v>
       </c>
       <c r="BK19" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL19" s="1">
-        <v>-317.362000</v>
+        <v>-317.36200000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>16534.877916</v>
+        <v>16534.877916000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.593022</v>
+        <v>4.5930220000000004</v>
       </c>
       <c r="BP19" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-504.644000</v>
+        <v>-504.64400000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>16545.485327</v>
+        <v>16545.485326999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.595968</v>
+        <v>4.5959680000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1332.030000</v>
+        <v>1332.03</v>
       </c>
       <c r="BV19" s="1">
-        <v>-710.337000</v>
+        <v>-710.33699999999999</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>16556.363088</v>
+        <v>16556.363087999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.598990</v>
+        <v>4.5989899999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1470.020000</v>
+        <v>1470.02</v>
       </c>
       <c r="CA19" s="1">
-        <v>-930.177000</v>
+        <v>-930.17700000000002</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>16569.014544</v>
+        <v>16569.014544000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.602504</v>
+        <v>4.6025039999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>1834.590000</v>
+        <v>1834.59</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1452.730000</v>
+        <v>-1452.73</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>16394.758565</v>
       </c>
       <c r="B20" s="1">
-        <v>4.554100</v>
+        <v>4.5541</v>
       </c>
       <c r="C20" s="1">
-        <v>896.123000</v>
+        <v>896.12300000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.270000</v>
+        <v>-200.27</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>16404.853641</v>
+        <v>16404.853641000002</v>
       </c>
       <c r="G20" s="1">
-        <v>4.556904</v>
+        <v>4.5569040000000003</v>
       </c>
       <c r="H20" s="1">
-        <v>913.960000</v>
+        <v>913.96</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.804000</v>
+        <v>-168.804</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>16415.365851</v>
+        <v>16415.365850999999</v>
       </c>
       <c r="L20" s="1">
-        <v>4.559824</v>
+        <v>4.5598239999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>936.167000</v>
+        <v>936.16700000000003</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.263000</v>
+        <v>-119.26300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>16425.929187</v>
+        <v>16425.929187000002</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.562758</v>
+        <v>4.5627579999999996</v>
       </c>
       <c r="R20" s="1">
-        <v>942.611000</v>
+        <v>942.61099999999999</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.134000</v>
+        <v>-103.134</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>16436.752351</v>
+        <v>16436.752350999999</v>
       </c>
       <c r="V20" s="1">
-        <v>4.565765</v>
+        <v>4.5657649999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>948.912000</v>
+        <v>948.91200000000003</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.209000</v>
+        <v>-88.209000000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>16447.656896</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.568794</v>
+        <v>4.5687939999999996</v>
       </c>
       <c r="AB20" s="1">
-        <v>955.730000</v>
+        <v>955.73</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.869300</v>
+        <v>-76.869299999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>16458.131906</v>
+        <v>16458.131905999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.571703</v>
+        <v>4.5717030000000003</v>
       </c>
       <c r="AG20" s="1">
-        <v>960.539000</v>
+        <v>960.53899999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.852900</v>
+        <v>-74.852900000000005</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>16468.679332</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.574633</v>
+        <v>4.5746330000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>967.485000</v>
+        <v>967.48500000000001</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.870400</v>
+        <v>-79.870400000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>16479.457926</v>
+        <v>16479.457925999999</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.577627</v>
+        <v>4.5776269999999997</v>
       </c>
       <c r="AQ20" s="1">
-        <v>975.563000</v>
+        <v>975.56299999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.813300</v>
+        <v>-91.813299999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>16490.579722</v>
+        <v>16490.579721999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.580717</v>
+        <v>4.5807169999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>985.496000</v>
+        <v>985.49599999999998</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.825000</v>
+        <v>-109.825</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>16501.235247</v>
+        <v>16501.235247000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.583676</v>
+        <v>4.5836759999999996</v>
       </c>
       <c r="BA20" s="1">
-        <v>993.777000</v>
+        <v>993.77700000000004</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.716000</v>
+        <v>-125.71599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>16512.233066</v>
+        <v>16512.233066000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.586731</v>
+        <v>4.5867310000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1032.670000</v>
+        <v>1032.67</v>
       </c>
       <c r="BG20" s="1">
-        <v>-198.741000</v>
+        <v>-198.74100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>16523.218428</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.589783</v>
+        <v>4.5897829999999997</v>
       </c>
       <c r="BK20" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL20" s="1">
-        <v>-317.360000</v>
+        <v>-317.36</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>16535.296550</v>
+        <v>16535.296549999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.593138</v>
+        <v>4.5931379999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-504.673000</v>
+        <v>-504.673</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>16545.898990</v>
+        <v>16545.898990000002</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.596083</v>
+        <v>4.5960830000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1332.120000</v>
+        <v>1332.12</v>
       </c>
       <c r="BV20" s="1">
-        <v>-710.248000</v>
+        <v>-710.24800000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>16556.786213</v>
+        <v>16556.786212999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.599107</v>
+        <v>4.5991070000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1470.020000</v>
+        <v>1470.02</v>
       </c>
       <c r="CA20" s="1">
-        <v>-930.273000</v>
+        <v>-930.27300000000002</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>16569.531374</v>
+        <v>16569.531373999998</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.602648</v>
+        <v>4.6026480000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>1834.320000</v>
+        <v>1834.32</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1452.800000</v>
+        <v>-1452.8</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>16395.126133</v>
+        <v>16395.126133000002</v>
       </c>
       <c r="B21" s="1">
-        <v>4.554202</v>
+        <v>4.5542020000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>896.109000</v>
+        <v>896.10900000000004</v>
       </c>
       <c r="D21" s="1">
-        <v>-199.920000</v>
+        <v>-199.92</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>16405.237048</v>
+        <v>16405.237047999999</v>
       </c>
       <c r="G21" s="1">
-        <v>4.557010</v>
+        <v>4.55701</v>
       </c>
       <c r="H21" s="1">
-        <v>913.581000</v>
+        <v>913.58100000000002</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.006000</v>
+        <v>-169.006</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>16415.709578</v>
+        <v>16415.709578000002</v>
       </c>
       <c r="L21" s="1">
-        <v>4.559919</v>
+        <v>4.5599189999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>936.371000</v>
+        <v>936.37099999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.465000</v>
+        <v>-119.465</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>16426.278333</v>
+        <v>16426.278332999998</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.562855</v>
+        <v>4.5628549999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>942.604000</v>
+        <v>942.60400000000004</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.142000</v>
+        <v>-103.142</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>16437.100560</v>
+        <v>16437.100559999999</v>
       </c>
       <c r="V21" s="1">
-        <v>4.565861</v>
+        <v>4.5658609999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>948.932000</v>
+        <v>948.93200000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.214000</v>
+        <v>-88.213999999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>16448.085439</v>
+        <v>16448.085438999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.568913</v>
+        <v>4.5689130000000002</v>
       </c>
       <c r="AB21" s="1">
-        <v>955.781000</v>
+        <v>955.78099999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.795700</v>
+        <v>-76.795699999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>16458.563922</v>
+        <v>16458.563922000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.571823</v>
+        <v>4.5718230000000002</v>
       </c>
       <c r="AG21" s="1">
-        <v>960.336000</v>
+        <v>960.33600000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.788000</v>
+        <v>-74.787999999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>16468.970485</v>
+        <v>16468.970485000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.574714</v>
+        <v>4.5747140000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>967.481000</v>
+        <v>967.48099999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.885400</v>
+        <v>-79.885400000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>16479.819510</v>
+        <v>16479.819510000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.577728</v>
+        <v>4.5777279999999996</v>
       </c>
       <c r="AQ21" s="1">
-        <v>975.583000</v>
+        <v>975.58299999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.804500</v>
+        <v>-91.804500000000004</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>16490.944248</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.580818</v>
+        <v>4.5808179999999998</v>
       </c>
       <c r="AV21" s="1">
-        <v>985.481000</v>
+        <v>985.48099999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.813000</v>
+        <v>-109.813</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>16501.593848</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.583776</v>
+        <v>4.5837760000000003</v>
       </c>
       <c r="BA21" s="1">
-        <v>993.769000</v>
+        <v>993.76900000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.710000</v>
+        <v>-125.71</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>16512.956202</v>
+        <v>16512.956202000001</v>
       </c>
       <c r="BE21" s="1">
         <v>4.586932</v>
       </c>
       <c r="BF21" s="1">
-        <v>1032.680000</v>
+        <v>1032.68</v>
       </c>
       <c r="BG21" s="1">
-        <v>-198.744000</v>
+        <v>-198.744</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>16523.967884</v>
+        <v>16523.967884000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.589991</v>
+        <v>4.5899910000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1099.780000</v>
+        <v>1099.78</v>
       </c>
       <c r="BL21" s="1">
-        <v>-317.379000</v>
+        <v>-317.37900000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>16535.694828</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.593249</v>
+        <v>4.5932490000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1208.950000</v>
+        <v>1208.95</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-504.663000</v>
+        <v>-504.66300000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>16546.313181</v>
+        <v>16546.313181000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.596198</v>
+        <v>4.5961980000000002</v>
       </c>
       <c r="BU21" s="1">
-        <v>1332.220000</v>
+        <v>1332.22</v>
       </c>
       <c r="BV21" s="1">
-        <v>-710.380000</v>
+        <v>-710.38</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>16557.211762</v>
+        <v>16557.211761999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.599225</v>
+        <v>4.5992249999999997</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1470.050000</v>
+        <v>1470.05</v>
       </c>
       <c r="CA21" s="1">
-        <v>-930.302000</v>
+        <v>-930.30200000000002</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>16570.391933</v>
+        <v>16570.391932999999</v>
       </c>
       <c r="CD21" s="1">
         <v>4.602887</v>
       </c>
       <c r="CE21" s="1">
-        <v>1833.020000</v>
+        <v>1833.02</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1452.980000</v>
+        <v>-1452.98</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>16395.462420</v>
+        <v>16395.46242</v>
       </c>
       <c r="B22" s="1">
-        <v>4.554295</v>
+        <v>4.5542949999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>896.150000</v>
+        <v>896.15</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.068000</v>
+        <v>-200.06800000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>16405.582761</v>
+        <v>16405.582761000001</v>
       </c>
       <c r="G22" s="1">
-        <v>4.557106</v>
+        <v>4.5571060000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>913.487000</v>
+        <v>913.48699999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.095000</v>
+        <v>-169.095</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>16416.055785</v>
       </c>
       <c r="L22" s="1">
-        <v>4.560015</v>
+        <v>4.5600149999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>936.172000</v>
+        <v>936.17200000000003</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.434000</v>
+        <v>-119.434</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>16426.898364</v>
+        <v>16426.898364000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.563027</v>
+        <v>4.5630269999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>942.566000</v>
+        <v>942.56600000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.145000</v>
+        <v>-103.145</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>16437.507757</v>
+        <v>16437.507756999999</v>
       </c>
       <c r="V22" s="1">
-        <v>4.565974</v>
+        <v>4.5659739999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>948.924000</v>
+        <v>948.92399999999998</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.182300</v>
+        <v>-88.182299999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>16448.363696</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.568990</v>
+        <v>4.5689900000000003</v>
       </c>
       <c r="AB22" s="1">
-        <v>955.730000</v>
+        <v>955.73</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.874200</v>
+        <v>-76.874200000000002</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>16458.841682</v>
+        <v>16458.841681999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.571900</v>
+        <v>4.5719000000000003</v>
       </c>
       <c r="AG22" s="1">
-        <v>960.358000</v>
+        <v>960.35799999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.920200</v>
+        <v>-74.920199999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>16469.319667</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.574811</v>
+        <v>4.5748110000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>967.482000</v>
+        <v>967.48199999999997</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.863800</v>
+        <v>-79.863799999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>16480.177094</v>
+        <v>16480.177093999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.577827</v>
+        <v>4.5778270000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>975.581000</v>
+        <v>975.58100000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.809000</v>
+        <v>-91.808999999999997</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>16491.310790</v>
+        <v>16491.31079</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.580920</v>
+        <v>4.5809199999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>985.487000</v>
+        <v>985.48699999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.829000</v>
+        <v>-109.82899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>16502.312056</v>
+        <v>16502.312055999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.583976</v>
+        <v>4.5839759999999998</v>
       </c>
       <c r="BA22" s="1">
-        <v>993.790000</v>
+        <v>993.79</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.720000</v>
+        <v>-125.72</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>16513.348041</v>
+        <v>16513.348041000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.587041</v>
+        <v>4.5870410000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1032.660000</v>
+        <v>1032.6600000000001</v>
       </c>
       <c r="BG22" s="1">
-        <v>-198.737000</v>
+        <v>-198.73699999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>16524.345095</v>
+        <v>16524.345095000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>4.590096</v>
       </c>
       <c r="BK22" s="1">
-        <v>1099.780000</v>
+        <v>1099.78</v>
       </c>
       <c r="BL22" s="1">
-        <v>-317.367000</v>
+        <v>-317.36700000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>16536.115900</v>
+        <v>16536.115900000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.593366</v>
+        <v>4.5933659999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1208.980000</v>
+        <v>1208.98</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-504.689000</v>
+        <v>-504.68900000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>16547.044748</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.596401</v>
+        <v>4.5964010000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1332.200000</v>
+        <v>1332.2</v>
       </c>
       <c r="BV22" s="1">
-        <v>-710.447000</v>
+        <v>-710.447</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>16557.933422</v>
+        <v>16557.933421999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.599426</v>
+        <v>4.5994260000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1470.040000</v>
+        <v>1470.04</v>
       </c>
       <c r="CA22" s="1">
-        <v>-930.224000</v>
+        <v>-930.22400000000005</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>16570.613645</v>
+        <v>16570.613645000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.602948</v>
+        <v>4.6029479999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1834.520000</v>
+        <v>1834.52</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1452.890000</v>
+        <v>-1452.89</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>16395.804164</v>
+        <v>16395.804164000001</v>
       </c>
       <c r="B23" s="1">
-        <v>4.554390</v>
+        <v>4.5543899999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>896.154000</v>
+        <v>896.154</v>
       </c>
       <c r="D23" s="1">
-        <v>-199.957000</v>
+        <v>-199.95699999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>16405.926982</v>
+        <v>16405.926982000001</v>
       </c>
       <c r="G23" s="1">
-        <v>4.557202</v>
+        <v>4.5572020000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>913.344000</v>
+        <v>913.34400000000005</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.065000</v>
+        <v>-169.065</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>16416.477913</v>
+        <v>16416.477912999999</v>
       </c>
       <c r="L23" s="1">
-        <v>4.560133</v>
+        <v>4.5601330000000004</v>
       </c>
       <c r="M23" s="1">
-        <v>936.175000</v>
+        <v>936.17499999999995</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.273000</v>
+        <v>-119.273</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>16427.323898</v>
+        <v>16427.323897999999</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.563146</v>
+        <v>4.5631459999999997</v>
       </c>
       <c r="R23" s="1">
-        <v>942.594000</v>
+        <v>942.59400000000005</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.129000</v>
+        <v>-103.129</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>16437.805886</v>
+        <v>16437.805885999998</v>
       </c>
       <c r="V23" s="1">
-        <v>4.566057</v>
+        <v>4.5660569999999998</v>
       </c>
       <c r="W23" s="1">
-        <v>948.923000</v>
+        <v>948.923</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.206900</v>
+        <v>-88.206900000000005</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>16448.711886</v>
+        <v>16448.711886000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.569087</v>
+        <v>4.5690869999999997</v>
       </c>
       <c r="AB23" s="1">
-        <v>955.807000</v>
+        <v>955.80700000000002</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.815200</v>
+        <v>-76.815200000000004</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>16459.184913</v>
+        <v>16459.184913000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.571996</v>
+        <v>4.5719960000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>960.429000</v>
+        <v>960.42899999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.717400</v>
+        <v>-74.717399999999998</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>16469.669384</v>
+        <v>16469.669384000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.574908</v>
+        <v>4.5749079999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>967.463000</v>
+        <v>967.46299999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.874700</v>
+        <v>-79.874700000000004</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
         <v>16480.897814</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.578027</v>
+        <v>4.5780269999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>975.547000</v>
+        <v>975.54700000000003</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.794300</v>
+        <v>-91.794300000000007</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>16492.038949</v>
+        <v>16492.038949000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.581122</v>
+        <v>4.5811219999999997</v>
       </c>
       <c r="AV23" s="1">
-        <v>985.468000</v>
+        <v>985.46799999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.809000</v>
+        <v>-109.809</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>16502.670194</v>
+        <v>16502.670193999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.584075</v>
+        <v>4.5840750000000003</v>
       </c>
       <c r="BA23" s="1">
-        <v>993.791000</v>
+        <v>993.79100000000005</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.706000</v>
+        <v>-125.706</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>16513.726490</v>
+        <v>16513.726490000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.587146</v>
+        <v>4.5871459999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1032.680000</v>
+        <v>1032.68</v>
       </c>
       <c r="BG23" s="1">
-        <v>-198.728000</v>
+        <v>-198.72800000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>16524.719322</v>
+        <v>16524.719322000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.590200</v>
+        <v>4.5902000000000003</v>
       </c>
       <c r="BK23" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL23" s="1">
-        <v>-317.348000</v>
+        <v>-317.34800000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>16536.833642</v>
+        <v>16536.833642000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.593565</v>
+        <v>4.5935649999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-504.665000</v>
+        <v>-504.66500000000002</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>16547.159641</v>
+        <v>16547.159640999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.596433</v>
+        <v>4.5964330000000002</v>
       </c>
       <c r="BU23" s="1">
-        <v>1332.260000</v>
+        <v>1332.26</v>
       </c>
       <c r="BV23" s="1">
-        <v>-710.485000</v>
+        <v>-710.48500000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>16558.075460</v>
+        <v>16558.07546</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.599465</v>
+        <v>4.5994650000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1469.990000</v>
+        <v>1469.99</v>
       </c>
       <c r="CA23" s="1">
-        <v>-930.194000</v>
+        <v>-930.19399999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>16571.129486</v>
+        <v>16571.129486000002</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.603092</v>
+        <v>4.6030920000000002</v>
       </c>
       <c r="CE23" s="1">
-        <v>1834.130000</v>
+        <v>1834.13</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1451.630000</v>
+        <v>-1451.63</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>16396.228212</v>
+        <v>16396.228212000002</v>
       </c>
       <c r="B24" s="1">
-        <v>4.554508</v>
+        <v>4.5545080000000002</v>
       </c>
       <c r="C24" s="1">
-        <v>896.152000</v>
+        <v>896.15200000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-199.956000</v>
+        <v>-199.95599999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>16406.343126</v>
       </c>
       <c r="G24" s="1">
-        <v>4.557318</v>
+        <v>4.5573180000000004</v>
       </c>
       <c r="H24" s="1">
-        <v>913.757000</v>
+        <v>913.75699999999995</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.501000</v>
+        <v>-168.501</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>16416.769557</v>
       </c>
       <c r="L24" s="1">
-        <v>4.560214</v>
+        <v>4.5602140000000002</v>
       </c>
       <c r="M24" s="1">
-        <v>936.175000</v>
+        <v>936.17499999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.513000</v>
+        <v>-119.51300000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>16427.671596</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.563242</v>
+        <v>4.5632419999999998</v>
       </c>
       <c r="R24" s="1">
-        <v>942.636000</v>
+        <v>942.63599999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.114000</v>
+        <v>-103.114</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>16438.148589</v>
       </c>
       <c r="V24" s="1">
-        <v>4.566152</v>
+        <v>4.5661519999999998</v>
       </c>
       <c r="W24" s="1">
-        <v>948.827000</v>
+        <v>948.827</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.182100</v>
+        <v>-88.182100000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>16449.060574</v>
+        <v>16449.060573999999</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.569183</v>
+        <v>4.5691829999999998</v>
       </c>
       <c r="AB24" s="1">
-        <v>955.775000</v>
+        <v>955.77499999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.814800</v>
+        <v>-76.814800000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>16459.857983</v>
+        <v>16459.857983000002</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.572183</v>
+        <v>4.5721829999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>960.382000</v>
+        <v>960.38199999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.742900</v>
+        <v>-74.742900000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>16470.364753</v>
+        <v>16470.364753000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.575101</v>
+        <v>4.5751010000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>967.497000</v>
+        <v>967.49699999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.879700</v>
+        <v>-79.8797</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>16481.257875</v>
+        <v>16481.257874999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.578127</v>
+        <v>4.5781270000000003</v>
       </c>
       <c r="AQ24" s="1">
-        <v>975.560000</v>
+        <v>975.56</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.793300</v>
+        <v>-91.793300000000002</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>16492.423812</v>
+        <v>16492.423812000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.581229</v>
+        <v>4.5812290000000004</v>
       </c>
       <c r="AV24" s="1">
-        <v>985.464000</v>
+        <v>985.46400000000006</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.815000</v>
+        <v>-109.815</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>16503.029766</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.584175</v>
+        <v>4.5841750000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>993.790000</v>
+        <v>993.79</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.716000</v>
+        <v>-125.71599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>16514.398594</v>
+        <v>16514.398593999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.587333</v>
+        <v>4.5873330000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1032.680000</v>
+        <v>1032.68</v>
       </c>
       <c r="BG24" s="1">
-        <v>-198.751000</v>
+        <v>-198.751</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>16525.413721</v>
+        <v>16525.413721000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.590393</v>
+        <v>4.5903929999999997</v>
       </c>
       <c r="BK24" s="1">
-        <v>1099.770000</v>
+        <v>1099.77</v>
       </c>
       <c r="BL24" s="1">
-        <v>-317.378000</v>
+        <v>-317.37799999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>16536.951658</v>
+        <v>16536.951658000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.593598</v>
+        <v>4.5935980000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1208.960000</v>
+        <v>1208.96</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-504.650000</v>
+        <v>-504.65</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>16547.569516</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.596547</v>
+        <v>4.5965470000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1332.240000</v>
+        <v>1332.24</v>
       </c>
       <c r="BV24" s="1">
-        <v>-710.555000</v>
+        <v>-710.55499999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>16558.498366</v>
@@ -6360,31 +6776,31 @@
         <v>4.599583</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1470.030000</v>
+        <v>1470.03</v>
       </c>
       <c r="CA24" s="1">
-        <v>-930.252000</v>
+        <v>-930.25199999999995</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>16571.648796</v>
+        <v>16571.648796000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.603236</v>
+        <v>4.6032359999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1833.000000</v>
+        <v>1833</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1451.890000</v>
+        <v>-1451.89</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>16396.498066</v>
       </c>
@@ -6392,435 +6808,435 @@
         <v>4.554583</v>
       </c>
       <c r="C25" s="1">
-        <v>896.142000</v>
+        <v>896.14200000000005</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.056000</v>
+        <v>-200.05600000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>16406.621382</v>
+        <v>16406.621382000001</v>
       </c>
       <c r="G25" s="1">
-        <v>4.557395</v>
+        <v>4.5573949999999996</v>
       </c>
       <c r="H25" s="1">
-        <v>913.913000</v>
+        <v>913.91300000000001</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.792000</v>
+        <v>-168.792</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>16417.117225</v>
+        <v>16417.117225000002</v>
       </c>
       <c r="L25" s="1">
-        <v>4.560310</v>
+        <v>4.5603100000000003</v>
       </c>
       <c r="M25" s="1">
-        <v>936.086000</v>
+        <v>936.08600000000001</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.384000</v>
+        <v>-119.384</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>16428.021273</v>
+        <v>16428.021272999998</v>
       </c>
       <c r="Q25" s="1">
         <v>4.563339</v>
       </c>
       <c r="R25" s="1">
-        <v>942.602000</v>
+        <v>942.60199999999998</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.153000</v>
+        <v>-103.15300000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>16438.491819</v>
+        <v>16438.491818999999</v>
       </c>
       <c r="V25" s="1">
-        <v>4.566248</v>
+        <v>4.5662479999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>948.814000</v>
+        <v>948.81399999999996</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.205600</v>
+        <v>-88.205600000000004</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>16449.755469</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.569377</v>
+        <v>4.5693770000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>955.704000</v>
+        <v>955.70399999999995</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.716600</v>
+        <v>-76.7166</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>16460.216593</v>
+        <v>16460.216593000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.572282</v>
+        <v>4.5722820000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>960.289000</v>
+        <v>960.28899999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.757100</v>
+        <v>-74.757099999999994</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>16470.711443</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.575198</v>
+        <v>4.5751980000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>967.484000</v>
+        <v>967.48400000000004</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.895000</v>
+        <v>-79.894999999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>16481.616980</v>
+        <v>16481.616979999999</v>
       </c>
       <c r="AP25" s="1">
         <v>4.578227</v>
       </c>
       <c r="AQ25" s="1">
-        <v>975.577000</v>
+        <v>975.577</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.818200</v>
+        <v>-91.818200000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>16492.789860</v>
+        <v>16492.789860000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.581331</v>
+        <v>4.5813309999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>985.498000</v>
+        <v>985.49800000000005</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.813000</v>
+        <v>-109.813</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>16503.695429</v>
+        <v>16503.695428999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.584360</v>
+        <v>4.5843600000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>993.765000</v>
+        <v>993.76499999999999</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.718000</v>
+        <v>-125.718</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>16514.810743</v>
+        <v>16514.810742999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.587447</v>
+        <v>4.5874470000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1032.690000</v>
+        <v>1032.69</v>
       </c>
       <c r="BG25" s="1">
-        <v>-198.737000</v>
+        <v>-198.73699999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>16525.850737</v>
+        <v>16525.850737000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.590514</v>
+        <v>4.5905139999999998</v>
       </c>
       <c r="BK25" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL25" s="1">
-        <v>-317.355000</v>
+        <v>-317.35500000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>16537.361353</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.593711</v>
+        <v>4.5937109999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1208.930000</v>
+        <v>1208.93</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-504.666000</v>
+        <v>-504.666</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>16547.999547</v>
+        <v>16547.999546999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.596667</v>
+        <v>4.5966670000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1332.310000</v>
+        <v>1332.31</v>
       </c>
       <c r="BV25" s="1">
-        <v>-710.632000</v>
+        <v>-710.63199999999995</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>16558.923437</v>
+        <v>16558.923437000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.599701</v>
+        <v>4.5997009999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1470.040000</v>
+        <v>1470.04</v>
       </c>
       <c r="CA25" s="1">
-        <v>-930.179000</v>
+        <v>-930.17899999999997</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>16572.164636</v>
+        <v>16572.164636000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.603379</v>
+        <v>4.6033790000000003</v>
       </c>
       <c r="CE25" s="1">
-        <v>1833.090000</v>
+        <v>1833.09</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1451.690000</v>
+        <v>-1451.69</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>16396.836836</v>
+        <v>16396.836835999999</v>
       </c>
       <c r="B26" s="1">
-        <v>4.554677</v>
+        <v>4.5546769999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>896.184000</v>
+        <v>896.18399999999997</v>
       </c>
       <c r="D26" s="1">
-        <v>-199.788000</v>
+        <v>-199.78800000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>16406.969109</v>
+        <v>16406.969109000001</v>
       </c>
       <c r="G26" s="1">
-        <v>4.557491</v>
+        <v>4.5574909999999997</v>
       </c>
       <c r="H26" s="1">
-        <v>913.848000</v>
+        <v>913.84799999999996</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.781000</v>
+        <v>-168.78100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>16417.461449</v>
+        <v>16417.461448999999</v>
       </c>
       <c r="L26" s="1">
-        <v>4.560406</v>
+        <v>4.5604060000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>935.926000</v>
+        <v>935.92600000000004</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.560000</v>
+        <v>-119.56</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>16428.720303</v>
+        <v>16428.720302999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.563533</v>
+        <v>4.5635329999999996</v>
       </c>
       <c r="R26" s="1">
-        <v>942.531000</v>
+        <v>942.53099999999995</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.172000</v>
+        <v>-103.172</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>16439.178315</v>
+        <v>16439.178315000001</v>
       </c>
       <c r="V26" s="1">
-        <v>4.566438</v>
+        <v>4.5664379999999998</v>
       </c>
       <c r="W26" s="1">
-        <v>948.895000</v>
+        <v>948.89499999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.214200</v>
+        <v>-88.214200000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>16450.107167</v>
+        <v>16450.107166999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.569474</v>
+        <v>4.5694739999999996</v>
       </c>
       <c r="AB26" s="1">
-        <v>955.736000</v>
+        <v>955.73599999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.748200</v>
+        <v>-76.748199999999997</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>16460.558336</v>
+        <v>16460.558335999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.572377</v>
+        <v>4.5723770000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>960.240000</v>
+        <v>960.24</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.667500</v>
+        <v>-74.667500000000004</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>16471.063602</v>
+        <v>16471.063601999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.575295</v>
+        <v>4.5752949999999997</v>
       </c>
       <c r="AL26" s="1">
-        <v>967.474000</v>
+        <v>967.47400000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.878400</v>
+        <v>-79.878399999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>16482.288066</v>
+        <v>16482.288066000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.578413</v>
+        <v>4.5784130000000003</v>
       </c>
       <c r="AQ26" s="1">
-        <v>975.568000</v>
+        <v>975.56799999999998</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.793000</v>
+        <v>-91.793000000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>16493.231112</v>
+        <v>16493.231112000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.581453</v>
+        <v>4.5814529999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>985.468000</v>
+        <v>985.46799999999996</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.806000</v>
+        <v>-109.806</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>16504.106085</v>
+        <v>16504.106084999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.584474</v>
+        <v>4.5844740000000002</v>
       </c>
       <c r="BA26" s="1">
-        <v>993.772000</v>
+        <v>993.77200000000005</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.709000</v>
+        <v>-125.709</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>16515.196630</v>
+        <v>16515.196629999999</v>
       </c>
       <c r="BE26" s="1">
         <v>4.587555</v>
       </c>
       <c r="BF26" s="1">
-        <v>1032.670000</v>
+        <v>1032.67</v>
       </c>
       <c r="BG26" s="1">
-        <v>-198.756000</v>
+        <v>-198.756</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>16526.314456</v>
@@ -6829,75 +7245,76 @@
         <v>4.590643</v>
       </c>
       <c r="BK26" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL26" s="1">
-        <v>-317.326000</v>
+        <v>-317.32600000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>16537.757192</v>
+        <v>16537.757192000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.593821</v>
+        <v>4.5938210000000002</v>
       </c>
       <c r="BP26" s="1">
-        <v>1208.940000</v>
+        <v>1208.94</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-504.695000</v>
+        <v>-504.69499999999999</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>16548.415690</v>
+        <v>16548.415690000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.596782</v>
+        <v>4.5967820000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1332.300000</v>
+        <v>1332.3</v>
       </c>
       <c r="BV26" s="1">
-        <v>-710.694000</v>
+        <v>-710.69399999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>16559.367852</v>
+        <v>16559.367851999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.599824</v>
+        <v>4.5998239999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1470.040000</v>
+        <v>1470.04</v>
       </c>
       <c r="CA26" s="1">
-        <v>-930.223000</v>
+        <v>-930.22299999999996</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>16572.719658</v>
+        <v>16572.719658000002</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.603533</v>
+        <v>4.6035329999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>1834.510000</v>
+        <v>1834.51</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1451.810000</v>
+        <v>-1451.81</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>